--- a/BUMMO/01. 자료/01. 족보/02. 수학(하)/02. 기말/수학(하) 기말 문제분류.xlsx
+++ b/BUMMO/01. 자료/01. 족보/02. 수학(하)/02. 기말/수학(하) 기말 문제분류.xlsx
@@ -24,37 +24,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="30">
   <x:si>
-    <x:t>용인고</x:t>
+    <x:t>1. 함수의 정의</x:t>
   </x:si>
   <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>학교</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태성고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고림고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼계고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>명제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포곡고</x:t>
+    <x:t>2. 여러가지 함수</x:t>
   </x:si>
   <x:si>
     <x:t>3 -&gt; 유형서 심화예제(킬러, 준킬러)</x:t>
@@ -63,16 +36,64 @@
     <x:t>3 -&gt; 유형서 심화예제(쎈B+, C)</x:t>
   </x:si>
   <x:si>
+    <x:t>1 -&gt; 교과서 기본예제(쎈A스텝)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 -&gt; 유형서 일반예제(쎈B스텝)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 -&gt; 유형서 일반예제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 -&gt; 교과서 기본예제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9. 경우의수(합곱법칙)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고림고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼계고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학교</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포곡고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태성고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>난이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용인고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8. 무리함수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>절대부등식</x:t>
+  </x:si>
+  <x:si>
     <x:t>5. 유리식</x:t>
   </x:si>
   <x:si>
-    <x:t>단원구분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 합성함수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8. 무리함수</x:t>
+    <x:t>10. 순열</x:t>
   </x:si>
   <x:si>
     <x:t>11. 조합</x:t>
@@ -81,37 +102,16 @@
     <x:t>7. 무리식</x:t>
   </x:si>
   <x:si>
-    <x:t>4. 역함수</x:t>
+    <x:t>단원구분</x:t>
   </x:si>
   <x:si>
     <x:t>6. 유리함수</x:t>
   </x:si>
   <x:si>
-    <x:t>10. 순열</x:t>
+    <x:t>4. 역함수</x:t>
   </x:si>
   <x:si>
-    <x:t>2 -&gt; 유형서 일반예제(쎈B스텝)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 -&gt; 교과서 기본예제(쎈A스텝)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2 -&gt; 유형서 일반예제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9. 경우의수(합곱법칙)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1 -&gt; 교과서 기본예제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>절대부등식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 여러가지 함수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 함수의 정의</x:t>
+    <x:t>3. 합성함수</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -934,7 +934,7 @@
   <x:dimension ref="A1:G357"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <x:selection activeCell="E346" activeCellId="0" sqref="E346:E346"/>
+      <x:selection activeCell="B283" activeCellId="0" sqref="B283:B283"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -949,19 +949,19 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C1" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D1" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E1" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F1" s="6"/>
       <x:c r="G1" s="5"/>
@@ -971,7 +971,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C2" s="2">
         <x:v>11</x:v>
@@ -984,7 +984,7 @@
       </x:c>
       <x:c r="F2" s="6"/>
       <x:c r="G2" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7" hidden="1">
@@ -992,7 +992,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B3" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C3" s="2">
         <x:v>4</x:v>
@@ -1005,7 +1005,7 @@
       </x:c>
       <x:c r="F3" s="6"/>
       <x:c r="G3" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" hidden="1">
@@ -1013,7 +1013,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="2">
         <x:v>6</x:v>
@@ -1026,7 +1026,7 @@
       </x:c>
       <x:c r="F4" s="6"/>
       <x:c r="G4" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7" hidden="1">
@@ -1034,7 +1034,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C5" s="2">
         <x:v>10</x:v>
@@ -1047,7 +1047,7 @@
       </x:c>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7" hidden="1">
@@ -1055,7 +1055,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="2">
         <x:v>10</x:v>
@@ -1068,7 +1068,7 @@
       </x:c>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7" hidden="1">
@@ -1076,7 +1076,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C7" s="2">
         <x:v>8</x:v>
@@ -1089,7 +1089,7 @@
       </x:c>
       <x:c r="F7" s="6"/>
       <x:c r="G7" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:7" hidden="1">
@@ -1097,7 +1097,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C8" s="2">
         <x:v>4</x:v>
@@ -1110,7 +1110,7 @@
       </x:c>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7" hidden="1">
@@ -1118,7 +1118,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C9" s="2">
         <x:v>9</x:v>
@@ -1131,7 +1131,7 @@
       </x:c>
       <x:c r="F9" s="6"/>
       <x:c r="G9" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" hidden="1">
@@ -1139,7 +1139,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C10" s="2">
         <x:v>6</x:v>
@@ -1152,7 +1152,7 @@
       </x:c>
       <x:c r="F10" s="6"/>
       <x:c r="G10" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" hidden="1">
@@ -1160,7 +1160,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C11" s="2">
         <x:v>9</x:v>
@@ -1173,7 +1173,7 @@
       </x:c>
       <x:c r="F11" s="6"/>
       <x:c r="G11" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" hidden="1">
@@ -1181,7 +1181,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="2">
         <x:v>8</x:v>
@@ -1194,7 +1194,7 @@
       </x:c>
       <x:c r="F12" s="6"/>
       <x:c r="G12" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7" hidden="1">
@@ -1202,7 +1202,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="2">
         <x:v>6</x:v>
@@ -1215,7 +1215,7 @@
       </x:c>
       <x:c r="F13" s="6"/>
       <x:c r="G13" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" hidden="1">
@@ -1223,10 +1223,10 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C14" s="2">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D14" s="2">
         <x:v>13</x:v>
@@ -1242,7 +1242,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C15" s="2">
         <x:v>11</x:v>
@@ -1255,7 +1255,7 @@
       </x:c>
       <x:c r="F15" s="6"/>
       <x:c r="G15" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7" hidden="1">
@@ -1263,7 +1263,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C16" s="2">
         <x:v>8</x:v>
@@ -1276,7 +1276,7 @@
       </x:c>
       <x:c r="F16" s="6"/>
       <x:c r="G16" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7" hidden="1">
@@ -1284,7 +1284,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C17" s="2">
         <x:v>11</x:v>
@@ -1297,7 +1297,7 @@
       </x:c>
       <x:c r="F17" s="6"/>
       <x:c r="G17" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" hidden="1">
@@ -1305,7 +1305,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C18" s="2">
         <x:v>11</x:v>
@@ -1318,7 +1318,7 @@
       </x:c>
       <x:c r="F18" s="6"/>
       <x:c r="G18" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5" hidden="1">
@@ -1326,7 +1326,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C19" s="2">
         <x:v>8</x:v>
@@ -1343,7 +1343,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C20" s="2">
         <x:v>6</x:v>
@@ -1366,7 +1366,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C22" s="2">
         <x:v>5</x:v>
@@ -1378,7 +1378,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G22" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7" hidden="1">
@@ -1386,19 +1386,19 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C23" s="2">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D23" s="2">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E23" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G23" s="5" t="s">
         <x:v>0</x:v>
-      </x:c>
-      <x:c r="C23" s="2">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D23" s="2">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E23" s="2">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G23" s="5" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7" hidden="1">
@@ -1406,7 +1406,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C24" s="2">
         <x:v>6</x:v>
@@ -1418,7 +1418,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G24" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7" hidden="1">
@@ -1426,7 +1426,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C25" s="2">
         <x:v>6</x:v>
@@ -1438,7 +1438,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G25" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7" hidden="1">
@@ -1446,7 +1446,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C26" s="2">
         <x:v>6</x:v>
@@ -1458,7 +1458,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G26" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7" hidden="1">
@@ -1466,7 +1466,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C27" s="2">
         <x:v>8</x:v>
@@ -1478,7 +1478,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G27" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:7" hidden="1">
@@ -1486,7 +1486,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C28" s="2">
         <x:v>8</x:v>
@@ -1498,7 +1498,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G28" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7" hidden="1">
@@ -1506,7 +1506,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C29" s="2">
         <x:v>8</x:v>
@@ -1518,7 +1518,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G29" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7" hidden="1">
@@ -1526,7 +1526,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C30" s="2">
         <x:v>8</x:v>
@@ -1538,7 +1538,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G30" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7" hidden="1">
@@ -1546,7 +1546,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C31" s="2">
         <x:v>8</x:v>
@@ -1558,7 +1558,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G31" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7" hidden="1">
@@ -1566,7 +1566,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C32" s="2">
         <x:v>11</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G32" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7" hidden="1">
@@ -1586,7 +1586,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C33" s="2">
         <x:v>11</x:v>
@@ -1598,7 +1598,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G33" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:7" hidden="1">
@@ -1606,7 +1606,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C34" s="2">
         <x:v>11</x:v>
@@ -1624,7 +1624,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C35" s="2">
         <x:v>10</x:v>
@@ -1636,7 +1636,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G35" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:7" hidden="1">
@@ -1644,7 +1644,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C36" s="2">
         <x:v>10</x:v>
@@ -1656,7 +1656,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G36" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7" hidden="1">
@@ -1664,7 +1664,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C37" s="2">
         <x:v>5</x:v>
@@ -1676,7 +1676,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G37" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:7" hidden="1">
@@ -1684,7 +1684,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C38" s="2">
         <x:v>7</x:v>
@@ -1696,7 +1696,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G38" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:5" hidden="1">
@@ -1704,7 +1704,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C39" s="2">
         <x:v>10</x:v>
@@ -1724,22 +1724,22 @@
     <x:row r="45" hidden="1"/>
     <x:row r="46" spans="1:7" hidden="1">
       <x:c r="A46" s="4" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B46" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C46" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D46" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E46" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G46" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:7" hidden="1">
@@ -1747,7 +1747,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B47" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C47" s="4">
         <x:v>11</x:v>
@@ -1759,7 +1759,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G47" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7" hidden="1">
@@ -1767,7 +1767,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B48" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C48" s="4">
         <x:v>6</x:v>
@@ -1779,7 +1779,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G48" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7" hidden="1">
@@ -1787,7 +1787,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B49" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C49" s="4">
         <x:v>4</x:v>
@@ -1799,7 +1799,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G49" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7" hidden="1">
@@ -1807,7 +1807,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B50" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C50" s="4">
         <x:v>8</x:v>
@@ -1819,7 +1819,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G50" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7" hidden="1">
@@ -1827,7 +1827,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B51" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C51" s="4">
         <x:v>11</x:v>
@@ -1839,7 +1839,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G51" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:7" hidden="1">
@@ -1847,7 +1847,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B52" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C52" s="4">
         <x:v>8</x:v>
@@ -1859,7 +1859,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G52" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:7" hidden="1">
@@ -1867,7 +1867,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B53" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C53" s="4">
         <x:v>4</x:v>
@@ -1879,7 +1879,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G53" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:7" hidden="1">
@@ -1887,7 +1887,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B54" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C54" s="4">
         <x:v>10</x:v>
@@ -1899,7 +1899,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G54" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:7" hidden="1">
@@ -1907,7 +1907,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B55" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C55" s="4">
         <x:v>4</x:v>
@@ -1919,7 +1919,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G55" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:7" hidden="1">
@@ -1927,7 +1927,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B56" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C56" s="4">
         <x:v>8</x:v>
@@ -1939,7 +1939,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G56" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:7" hidden="1">
@@ -1947,7 +1947,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B57" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C57" s="4">
         <x:v>10</x:v>
@@ -1959,7 +1959,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G57" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:7" hidden="1">
@@ -1967,7 +1967,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B58" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C58" s="4">
         <x:v>9</x:v>
@@ -1985,7 +1985,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B59" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C59" s="4">
         <x:v>11</x:v>
@@ -1997,7 +1997,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G59" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:7" hidden="1">
@@ -2005,7 +2005,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B60" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C60" s="4">
         <x:v>11</x:v>
@@ -2017,7 +2017,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G60" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:7" hidden="1">
@@ -2025,7 +2025,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B61" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C61" s="4">
         <x:v>6</x:v>
@@ -2037,7 +2037,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G61" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:7" hidden="1">
@@ -2045,7 +2045,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B62" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C62" s="4">
         <x:v>11</x:v>
@@ -2057,7 +2057,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G62" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:5" hidden="1">
@@ -2065,7 +2065,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B63" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C63" s="4">
         <x:v>8</x:v>
@@ -2082,7 +2082,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B64" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C64" s="4">
         <x:v>6</x:v>
@@ -2100,7 +2100,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B66" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C66" s="4">
         <x:v>11</x:v>
@@ -2112,7 +2112,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G66" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:7" hidden="1">
@@ -2120,7 +2120,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B67" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C67" s="4">
         <x:v>4</x:v>
@@ -2132,7 +2132,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G67" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:7" hidden="1">
@@ -2140,7 +2140,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B68" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C68" s="4">
         <x:v>1</x:v>
@@ -2152,7 +2152,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G68" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:7" hidden="1">
@@ -2160,7 +2160,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B69" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C69" s="4">
         <x:v>8</x:v>
@@ -2172,7 +2172,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G69" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:7" hidden="1">
@@ -2180,7 +2180,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B70" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C70" s="4">
         <x:v>6</x:v>
@@ -2192,7 +2192,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G70" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:7" hidden="1">
@@ -2200,7 +2200,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B71" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C71" s="4">
         <x:v>9</x:v>
@@ -2212,7 +2212,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G71" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:7" hidden="1">
@@ -2220,7 +2220,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B72" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C72" s="4">
         <x:v>11</x:v>
@@ -2232,7 +2232,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G72" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:7" hidden="1">
@@ -2240,7 +2240,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B73" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C73" s="4">
         <x:v>1</x:v>
@@ -2252,7 +2252,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G73" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:7" hidden="1">
@@ -2260,7 +2260,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B74" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C74" s="4">
         <x:v>6</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G74" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:7" hidden="1">
@@ -2280,7 +2280,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B75" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C75" s="4">
         <x:v>9</x:v>
@@ -2292,7 +2292,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G75" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:7" hidden="1">
@@ -2300,7 +2300,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B76" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C76" s="4">
         <x:v>8</x:v>
@@ -2312,7 +2312,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G76" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:7" hidden="1">
@@ -2320,7 +2320,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B77" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C77" s="4">
         <x:v>6</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G77" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:7" hidden="1">
@@ -2340,7 +2340,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B78" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C78" s="4">
         <x:v>8</x:v>
@@ -2353,12 +2353,12 @@
       </x:c>
       <x:c r="G78" s="5"/>
     </x:row>
-    <x:row r="79" spans="1:7" hidden="1">
+    <x:row r="79" spans="1:7">
       <x:c r="A79" s="4">
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B79" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C79" s="4">
         <x:v>2</x:v>
@@ -2370,7 +2370,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G79" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:7" hidden="1">
@@ -2378,7 +2378,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B80" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C80" s="4">
         <x:v>10</x:v>
@@ -2390,7 +2390,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G80" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:7" hidden="1">
@@ -2398,7 +2398,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B81" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C81" s="4">
         <x:v>8</x:v>
@@ -2410,7 +2410,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G81" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:7" hidden="1">
@@ -2418,7 +2418,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B82" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C82" s="4">
         <x:v>8</x:v>
@@ -2430,7 +2430,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G82" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:5" hidden="1">
@@ -2438,7 +2438,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B83" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C83" s="4">
         <x:v>11</x:v>
@@ -2455,7 +2455,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B84" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C84" s="4">
         <x:v>6</x:v>
@@ -2472,7 +2472,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B85" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C85" s="4">
         <x:v>10</x:v>
@@ -2491,19 +2491,19 @@
     <x:row r="90" s="2" customFormat="1" hidden="1"/>
     <x:row r="91" spans="1:5" s="2" customFormat="1" hidden="1">
       <x:c r="A91" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B91" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C91" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D91" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E91" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:7" hidden="1">
@@ -2511,7 +2511,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B92" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C92" s="4">
         <x:v>1</x:v>
@@ -2523,7 +2523,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G92" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:7" hidden="1">
@@ -2531,7 +2531,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B93" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C93" s="4">
         <x:v>2</x:v>
@@ -2543,7 +2543,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G93" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:7" hidden="1">
@@ -2551,7 +2551,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B94" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C94" s="4">
         <x:v>3</x:v>
@@ -2563,7 +2563,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G94" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:7" hidden="1">
@@ -2571,7 +2571,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B95" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C95" s="4">
         <x:v>4</x:v>
@@ -2583,7 +2583,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G95" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:7" hidden="1">
@@ -2591,7 +2591,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B96" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C96" s="4">
         <x:v>4</x:v>
@@ -2603,7 +2603,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G96" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:7" hidden="1">
@@ -2611,7 +2611,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B97" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C97" s="4">
         <x:v>5</x:v>
@@ -2623,7 +2623,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G97" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:7" hidden="1">
@@ -2631,7 +2631,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B98" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C98" s="4">
         <x:v>6</x:v>
@@ -2643,7 +2643,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G98" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:7" hidden="1">
@@ -2651,7 +2651,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B99" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C99" s="4">
         <x:v>6</x:v>
@@ -2663,7 +2663,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G99" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:7" hidden="1">
@@ -2671,7 +2671,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B100" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C100" s="4">
         <x:v>6</x:v>
@@ -2683,7 +2683,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G100" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:7" hidden="1">
@@ -2691,7 +2691,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B101" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C101" s="4">
         <x:v>8</x:v>
@@ -2703,7 +2703,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G101" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:7" hidden="1">
@@ -2711,7 +2711,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B102" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C102" s="4">
         <x:v>8</x:v>
@@ -2723,7 +2723,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G102" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:7" hidden="1">
@@ -2731,7 +2731,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B103" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C103" s="4">
         <x:v>9</x:v>
@@ -2743,7 +2743,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G103" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:7" hidden="1">
@@ -2751,7 +2751,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B104" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C104" s="4">
         <x:v>9</x:v>
@@ -2769,7 +2769,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B105" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C105" s="4">
         <x:v>10</x:v>
@@ -2781,7 +2781,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G105" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:7" hidden="1">
@@ -2789,7 +2789,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B106" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C106" s="4">
         <x:v>11</x:v>
@@ -2801,7 +2801,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G106" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:7" hidden="1">
@@ -2809,7 +2809,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B107" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C107" s="4">
         <x:v>10</x:v>
@@ -2821,7 +2821,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G107" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:7" hidden="1">
@@ -2829,7 +2829,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B108" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C108" s="4">
         <x:v>11</x:v>
@@ -2841,7 +2841,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G108" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:5" hidden="1">
@@ -2849,7 +2849,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B109" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C109" s="4">
         <x:v>10</x:v>
@@ -2866,7 +2866,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B110" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C110" s="4">
         <x:v>8</x:v>
@@ -2883,7 +2883,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B111" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C111" s="4">
         <x:v>1</x:v>
@@ -2900,7 +2900,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B112" s="3" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C112" s="4">
         <x:v>11</x:v>
@@ -2918,7 +2918,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B114" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C114" s="4">
         <x:v>8</x:v>
@@ -2930,7 +2930,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G114" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:7" hidden="1">
@@ -2938,7 +2938,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B115" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C115" s="4">
         <x:v>4</x:v>
@@ -2950,7 +2950,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G115" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:7" hidden="1">
@@ -2958,7 +2958,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B116" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C116" s="4">
         <x:v>11</x:v>
@@ -2970,7 +2970,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G116" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:7" hidden="1">
@@ -2978,7 +2978,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B117" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C117" s="4">
         <x:v>11</x:v>
@@ -2990,7 +2990,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G117" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:7" hidden="1">
@@ -2998,7 +2998,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B118" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C118" s="4">
         <x:v>6</x:v>
@@ -3010,7 +3010,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G118" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:7" hidden="1">
@@ -3018,7 +3018,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B119" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C119" s="4">
         <x:v>7</x:v>
@@ -3030,15 +3030,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G119" s="5" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="120" spans="1:7" hidden="1">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:7">
       <x:c r="A120" s="4">
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B120" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C120" s="4">
         <x:v>2</x:v>
@@ -3050,7 +3050,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G120" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:7" hidden="1">
@@ -3058,7 +3058,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B121" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C121" s="4">
         <x:v>10</x:v>
@@ -3070,7 +3070,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G121" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:7" hidden="1">
@@ -3078,7 +3078,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B122" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C122" s="4">
         <x:v>11</x:v>
@@ -3090,7 +3090,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G122" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:7" hidden="1">
@@ -3098,7 +3098,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B123" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C123" s="4">
         <x:v>4</x:v>
@@ -3110,7 +3110,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G123" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:7" hidden="1">
@@ -3118,7 +3118,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B124" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C124" s="4">
         <x:v>6</x:v>
@@ -3130,7 +3130,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G124" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:7" hidden="1">
@@ -3138,7 +3138,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B125" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C125" s="4">
         <x:v>10</x:v>
@@ -3150,7 +3150,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G125" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:7" hidden="1">
@@ -3158,7 +3158,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B126" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C126" s="4">
         <x:v>11</x:v>
@@ -3176,7 +3176,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B127" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C127" s="4">
         <x:v>11</x:v>
@@ -3188,7 +3188,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G127" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:7" hidden="1">
@@ -3196,7 +3196,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B128" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C128" s="4">
         <x:v>6</x:v>
@@ -3208,7 +3208,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G128" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:7" hidden="1">
@@ -3216,7 +3216,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B129" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C129" s="4">
         <x:v>8</x:v>
@@ -3228,7 +3228,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G129" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:7" hidden="1">
@@ -3236,7 +3236,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B130" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C130" s="4">
         <x:v>11</x:v>
@@ -3248,7 +3248,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G130" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:5" hidden="1">
@@ -3256,7 +3256,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B131" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C131" s="4">
         <x:v>3</x:v>
@@ -3273,7 +3273,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B132" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C132" s="4">
         <x:v>8</x:v>
@@ -3290,7 +3290,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B133" s="2" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C133" s="4">
         <x:v>11</x:v>
@@ -3306,19 +3306,19 @@
     <x:row r="135" hidden="1"/>
     <x:row r="136" spans="1:5" hidden="1">
       <x:c r="A136" s="2" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B136" s="2" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C136" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D136" s="2" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E136" s="2" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:7" hidden="1">
@@ -3326,7 +3326,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B137" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C137" s="4">
         <x:v>11</x:v>
@@ -3338,7 +3338,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G137" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:7" hidden="1">
@@ -3346,7 +3346,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B138" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C138" s="4">
         <x:v>4</x:v>
@@ -3358,7 +3358,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G138" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:7" hidden="1">
@@ -3366,7 +3366,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B139" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C139" s="4">
         <x:v>6</x:v>
@@ -3378,7 +3378,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G139" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:7" hidden="1">
@@ -3386,7 +3386,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B140" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C140" s="4">
         <x:v>7</x:v>
@@ -3398,7 +3398,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G140" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:7" hidden="1">
@@ -3406,7 +3406,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B141" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C141" s="4">
         <x:v>11</x:v>
@@ -3418,7 +3418,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G141" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:7" hidden="1">
@@ -3426,7 +3426,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B142" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C142" s="4">
         <x:v>10</x:v>
@@ -3438,7 +3438,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G142" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:7" hidden="1">
@@ -3446,7 +3446,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B143" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C143" s="4">
         <x:v>4</x:v>
@@ -3458,15 +3458,15 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G143" s="5" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="144" spans="1:7">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:7" hidden="1">
       <x:c r="A144" s="4">
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B144" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C144" s="4">
         <x:v>3</x:v>
@@ -3478,7 +3478,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G144" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:7" hidden="1">
@@ -3486,7 +3486,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B145" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C145" s="4">
         <x:v>11</x:v>
@@ -3498,7 +3498,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G145" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:7" hidden="1">
@@ -3506,7 +3506,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B146" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C146" s="4">
         <x:v>11</x:v>
@@ -3518,7 +3518,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G146" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:7" hidden="1">
@@ -3526,7 +3526,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B147" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C147" s="4">
         <x:v>6</x:v>
@@ -3538,7 +3538,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G147" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:7" hidden="1">
@@ -3546,7 +3546,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B148" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C148" s="4">
         <x:v>8</x:v>
@@ -3558,7 +3558,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G148" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:7" hidden="1">
@@ -3566,7 +3566,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B149" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C149" s="4">
         <x:v>11</x:v>
@@ -3584,7 +3584,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B150" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C150" s="4">
         <x:v>11</x:v>
@@ -3596,7 +3596,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G150" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:7" hidden="1">
@@ -3604,7 +3604,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B151" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C151" s="4">
         <x:v>8</x:v>
@@ -3616,7 +3616,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G151" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:7" hidden="1">
@@ -3624,7 +3624,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B152" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C152" s="4">
         <x:v>8</x:v>
@@ -3636,7 +3636,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G152" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:7" hidden="1">
@@ -3644,7 +3644,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B153" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C153" s="4">
         <x:v>6</x:v>
@@ -3656,7 +3656,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G153" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:5" hidden="1">
@@ -3664,7 +3664,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B154" s="2" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C154" s="4">
         <x:v>6</x:v>
@@ -3682,7 +3682,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B156" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C156" s="4">
         <x:v>11</x:v>
@@ -3694,7 +3694,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G156" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:7" hidden="1">
@@ -3702,7 +3702,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B157" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C157" s="4">
         <x:v>10</x:v>
@@ -3714,7 +3714,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G157" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:7" hidden="1">
@@ -3722,7 +3722,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B158" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C158" s="4">
         <x:v>4</x:v>
@@ -3734,7 +3734,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G158" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:7" hidden="1">
@@ -3742,7 +3742,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B159" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C159" s="4">
         <x:v>3</x:v>
@@ -3754,7 +3754,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G159" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:7" hidden="1">
@@ -3762,7 +3762,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B160" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C160" s="4">
         <x:v>9</x:v>
@@ -3774,15 +3774,15 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G160" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="161" spans="1:7">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:7" hidden="1">
       <x:c r="A161" s="4">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B161" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C161" s="4">
         <x:v>3</x:v>
@@ -3794,15 +3794,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G161" s="5" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="162" spans="1:7">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:7" hidden="1">
       <x:c r="A162" s="4">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B162" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C162" s="4">
         <x:v>3</x:v>
@@ -3814,7 +3814,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G162" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:7" hidden="1">
@@ -3822,7 +3822,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B163" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C163" s="4">
         <x:v>10</x:v>
@@ -3834,7 +3834,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G163" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:7" hidden="1">
@@ -3842,7 +3842,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B164" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C164" s="4">
         <x:v>10</x:v>
@@ -3854,7 +3854,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G164" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:7" hidden="1">
@@ -3862,7 +3862,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B165" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C165" s="4">
         <x:v>8</x:v>
@@ -3874,7 +3874,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G165" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:7" hidden="1">
@@ -3882,7 +3882,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B166" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C166" s="4">
         <x:v>6</x:v>
@@ -3894,15 +3894,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G166" s="5" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="167" spans="1:7" hidden="1">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:7">
       <x:c r="A167" s="4">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B167" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C167" s="4">
         <x:v>2</x:v>
@@ -3914,7 +3914,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G167" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:7" hidden="1">
@@ -3922,7 +3922,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B168" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C168" s="4">
         <x:v>10</x:v>
@@ -3940,7 +3940,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B169" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C169" s="4">
         <x:v>6</x:v>
@@ -3952,7 +3952,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G169" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:7" hidden="1">
@@ -3960,7 +3960,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B170" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C170" s="4">
         <x:v>4</x:v>
@@ -3972,7 +3972,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G170" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:7" hidden="1">
@@ -3980,7 +3980,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B171" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C171" s="4">
         <x:v>10</x:v>
@@ -3992,7 +3992,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G171" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:7" hidden="1">
@@ -4000,7 +4000,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B172" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C172" s="4">
         <x:v>4</x:v>
@@ -4012,7 +4012,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G172" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:5" hidden="1">
@@ -4020,7 +4020,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B173" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C173" s="4">
         <x:v>3</x:v>
@@ -4037,7 +4037,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B174" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C174" s="4">
         <x:v>8</x:v>
@@ -4054,7 +4054,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B175" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C175" s="4">
         <x:v>6</x:v>
@@ -4073,19 +4073,19 @@
     <x:row r="180" hidden="1"/>
     <x:row r="181" spans="1:5" hidden="1">
       <x:c r="A181" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B181" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C181" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D181" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E181" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:7" hidden="1">
@@ -4093,7 +4093,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B182" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C182" s="1">
         <x:v>11</x:v>
@@ -4106,7 +4106,7 @@
       </x:c>
       <x:c r="F182" s="1"/>
       <x:c r="G182" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:7" hidden="1">
@@ -4114,7 +4114,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B183" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C183" s="1">
         <x:v>7</x:v>
@@ -4127,7 +4127,7 @@
       </x:c>
       <x:c r="F183" s="1"/>
       <x:c r="G183" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:7" hidden="1">
@@ -4135,7 +4135,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B184" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C184" s="1">
         <x:v>4</x:v>
@@ -4148,7 +4148,7 @@
       </x:c>
       <x:c r="F184" s="1"/>
       <x:c r="G184" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:7" hidden="1">
@@ -4156,7 +4156,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B185" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C185" s="1">
         <x:v>2</x:v>
@@ -4169,7 +4169,7 @@
       </x:c>
       <x:c r="F185" s="1"/>
       <x:c r="G185" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:7" hidden="1">
@@ -4177,7 +4177,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B186" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C186" s="1">
         <x:v>9</x:v>
@@ -4190,7 +4190,7 @@
       </x:c>
       <x:c r="F186" s="1"/>
       <x:c r="G186" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:7" hidden="1">
@@ -4198,7 +4198,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B187" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C187" s="1">
         <x:v>8</x:v>
@@ -4211,7 +4211,7 @@
       </x:c>
       <x:c r="F187" s="1"/>
       <x:c r="G187" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:7" hidden="1">
@@ -4219,7 +4219,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B188" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C188" s="1">
         <x:v>4</x:v>
@@ -4232,7 +4232,7 @@
       </x:c>
       <x:c r="F188" s="1"/>
       <x:c r="G188" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:7" hidden="1">
@@ -4240,7 +4240,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B189" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C189" s="1">
         <x:v>10</x:v>
@@ -4253,7 +4253,7 @@
       </x:c>
       <x:c r="F189" s="1"/>
       <x:c r="G189" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:7" hidden="1">
@@ -4261,7 +4261,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B190" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C190" s="1">
         <x:v>11</x:v>
@@ -4274,7 +4274,7 @@
       </x:c>
       <x:c r="F190" s="1"/>
       <x:c r="G190" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:7" hidden="1">
@@ -4282,7 +4282,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B191" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C191" s="1">
         <x:v>6</x:v>
@@ -4295,15 +4295,15 @@
       </x:c>
       <x:c r="F191" s="1"/>
       <x:c r="G191" s="5" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="192" spans="1:7" hidden="1">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" spans="1:7">
       <x:c r="A192" s="1">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B192" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C192" s="1">
         <x:v>2</x:v>
@@ -4316,7 +4316,7 @@
       </x:c>
       <x:c r="F192" s="1"/>
       <x:c r="G192" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:7" hidden="1">
@@ -4324,7 +4324,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B193" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C193" s="1">
         <x:v>4</x:v>
@@ -4337,15 +4337,15 @@
       </x:c>
       <x:c r="F193" s="1"/>
       <x:c r="G193" s="5" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="194" spans="1:7">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194" spans="1:7" hidden="1">
       <x:c r="A194" s="1">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B194" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C194" s="1">
         <x:v>3</x:v>
@@ -4364,7 +4364,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B195" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C195" s="1">
         <x:v>10</x:v>
@@ -4377,7 +4377,7 @@
       </x:c>
       <x:c r="F195" s="1"/>
       <x:c r="G195" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:7" hidden="1">
@@ -4385,7 +4385,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B196" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C196" s="1">
         <x:v>6</x:v>
@@ -4398,7 +4398,7 @@
       </x:c>
       <x:c r="F196" s="1"/>
       <x:c r="G196" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:7" hidden="1">
@@ -4406,7 +4406,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B197" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C197" s="1">
         <x:v>10</x:v>
@@ -4419,7 +4419,7 @@
       </x:c>
       <x:c r="F197" s="1"/>
       <x:c r="G197" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:7" hidden="1">
@@ -4427,7 +4427,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B198" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C198" s="1">
         <x:v>4</x:v>
@@ -4440,7 +4440,7 @@
       </x:c>
       <x:c r="F198" s="1"/>
       <x:c r="G198" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:7" hidden="1">
@@ -4448,7 +4448,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B199" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C199" s="1">
         <x:v>11</x:v>
@@ -4467,7 +4467,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B200" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C200" s="1">
         <x:v>6</x:v>
@@ -4486,7 +4486,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B201" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C201" s="1">
         <x:v>11</x:v>
@@ -4505,7 +4505,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B202" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C202" s="1">
         <x:v>10</x:v>
@@ -4524,7 +4524,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B203" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C203" s="1">
         <x:v>4</x:v>
@@ -4544,7 +4544,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B205" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C205" s="4">
         <x:v>9</x:v>
@@ -4556,7 +4556,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G205" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:7" hidden="1">
@@ -4564,7 +4564,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B206" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C206" s="4">
         <x:v>11</x:v>
@@ -4576,15 +4576,15 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G206" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="207" spans="1:7">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="207" spans="1:7" hidden="1">
       <x:c r="A207" s="4">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B207" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C207" s="4">
         <x:v>3</x:v>
@@ -4596,7 +4596,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G207" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:7" hidden="1">
@@ -4604,7 +4604,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B208" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C208" s="4">
         <x:v>10</x:v>
@@ -4616,7 +4616,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G208" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:7" hidden="1">
@@ -4624,7 +4624,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B209" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C209" s="4">
         <x:v>11</x:v>
@@ -4636,7 +4636,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G209" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:7" hidden="1">
@@ -4644,7 +4644,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B210" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C210" s="4">
         <x:v>4</x:v>
@@ -4656,7 +4656,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G210" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:7" hidden="1">
@@ -4664,7 +4664,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B211" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C211" s="4">
         <x:v>10</x:v>
@@ -4676,7 +4676,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G211" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:7" hidden="1">
@@ -4684,7 +4684,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B212" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C212" s="4">
         <x:v>10</x:v>
@@ -4696,7 +4696,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G212" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:7" hidden="1">
@@ -4704,7 +4704,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B213" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C213" s="4">
         <x:v>11</x:v>
@@ -4716,7 +4716,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G213" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:7" hidden="1">
@@ -4724,7 +4724,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B214" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C214" s="4">
         <x:v>8</x:v>
@@ -4736,7 +4736,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G214" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:7" hidden="1">
@@ -4744,7 +4744,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B215" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C215" s="4">
         <x:v>10</x:v>
@@ -4756,7 +4756,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G215" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:7" hidden="1">
@@ -4764,7 +4764,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B216" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C216" s="4">
         <x:v>4</x:v>
@@ -4776,15 +4776,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G216" s="5" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="217" spans="1:7">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="217" spans="1:7" hidden="1">
       <x:c r="A217" s="4">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B217" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C217" s="4">
         <x:v>3</x:v>
@@ -4802,7 +4802,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B218" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C218" s="4">
         <x:v>6</x:v>
@@ -4814,7 +4814,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G218" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:7" hidden="1">
@@ -4822,7 +4822,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B219" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C219" s="4">
         <x:v>6</x:v>
@@ -4834,7 +4834,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G219" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:7" hidden="1">
@@ -4842,7 +4842,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B220" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C220" s="4">
         <x:v>11</x:v>
@@ -4854,7 +4854,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G220" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:7" hidden="1">
@@ -4862,7 +4862,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B221" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C221" s="4">
         <x:v>8</x:v>
@@ -4874,7 +4874,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G221" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:5" hidden="1">
@@ -4882,7 +4882,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B222" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C222" s="4">
         <x:v>11</x:v>
@@ -4899,19 +4899,19 @@
     <x:row r="225" hidden="1"/>
     <x:row r="226" spans="1:7" hidden="1">
       <x:c r="A226" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B226" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C226" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D226" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E226" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="F226" s="1"/>
       <x:c r="G226" s="1"/>
@@ -4921,7 +4921,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B227" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C227" s="4">
         <x:v>1</x:v>
@@ -4933,7 +4933,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G227" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:7" hidden="1">
@@ -4941,7 +4941,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B228" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C228" s="4">
         <x:v>9</x:v>
@@ -4953,7 +4953,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G228" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:7" hidden="1">
@@ -4961,7 +4961,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B229" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C229" s="4">
         <x:v>6</x:v>
@@ -4973,7 +4973,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G229" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:7" hidden="1">
@@ -4981,7 +4981,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B230" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C230" s="4">
         <x:v>11</x:v>
@@ -4993,7 +4993,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G230" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:7" hidden="1">
@@ -5001,7 +5001,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B231" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C231" s="4">
         <x:v>3</x:v>
@@ -5013,7 +5013,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G231" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:7" hidden="1">
@@ -5021,7 +5021,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B232" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C232" s="4">
         <x:v>4</x:v>
@@ -5033,7 +5033,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G232" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:7" hidden="1">
@@ -5041,7 +5041,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B233" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C233" s="4">
         <x:v>11</x:v>
@@ -5053,15 +5053,15 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G233" s="5" t="s">
-        <x:v>20</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="234" spans="1:7" hidden="1">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="234" spans="1:7">
       <x:c r="A234" s="4">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B234" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C234" s="4">
         <x:v>2</x:v>
@@ -5073,7 +5073,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G234" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:7" hidden="1">
@@ -5081,10 +5081,10 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B235" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C235" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D235" s="4">
         <x:v>9</x:v>
@@ -5093,7 +5093,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G235" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:7" hidden="1">
@@ -5101,7 +5101,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B236" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C236" s="4">
         <x:v>4</x:v>
@@ -5113,7 +5113,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G236" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:7" hidden="1">
@@ -5121,7 +5121,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B237" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C237" s="4">
         <x:v>8</x:v>
@@ -5133,7 +5133,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G237" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:7" hidden="1">
@@ -5141,7 +5141,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B238" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C238" s="4">
         <x:v>11</x:v>
@@ -5153,7 +5153,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G238" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:7" hidden="1">
@@ -5161,7 +5161,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B239" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C239" s="4">
         <x:v>4</x:v>
@@ -5179,7 +5179,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B240" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C240" s="4">
         <x:v>8</x:v>
@@ -5191,7 +5191,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G240" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:7" hidden="1">
@@ -5199,7 +5199,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B241" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C241" s="4">
         <x:v>10</x:v>
@@ -5211,7 +5211,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G241" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:7" hidden="1">
@@ -5219,7 +5219,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B242" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C242" s="4">
         <x:v>4</x:v>
@@ -5231,7 +5231,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G242" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:7" hidden="1">
@@ -5239,7 +5239,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B243" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C243" s="4">
         <x:v>8</x:v>
@@ -5251,7 +5251,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G243" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:5" hidden="1">
@@ -5259,7 +5259,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B244" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C244" s="4">
         <x:v>10</x:v>
@@ -5276,10 +5276,10 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B245" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C245" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D245" s="4">
         <x:v>19</x:v>
@@ -5293,7 +5293,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B246" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C246" s="4">
         <x:v>8</x:v>
@@ -5311,7 +5311,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B248" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C248" s="4">
         <x:v>6</x:v>
@@ -5323,7 +5323,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G248" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:7" hidden="1">
@@ -5331,7 +5331,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B249" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C249" s="4">
         <x:v>9</x:v>
@@ -5343,7 +5343,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G249" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:7" hidden="1">
@@ -5351,7 +5351,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B250" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C250" s="4">
         <x:v>9</x:v>
@@ -5363,7 +5363,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G250" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:7" hidden="1">
@@ -5371,7 +5371,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B251" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C251" s="4">
         <x:v>3</x:v>
@@ -5383,7 +5383,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G251" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:7" hidden="1">
@@ -5391,7 +5391,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B252" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C252" s="4">
         <x:v>3</x:v>
@@ -5403,7 +5403,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G252" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:7" hidden="1">
@@ -5411,7 +5411,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B253" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C253" s="4">
         <x:v>8</x:v>
@@ -5423,7 +5423,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G253" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:7" hidden="1">
@@ -5431,7 +5431,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B254" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C254" s="4">
         <x:v>8</x:v>
@@ -5443,7 +5443,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G254" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:7" hidden="1">
@@ -5451,7 +5451,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B255" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C255" s="4">
         <x:v>4</x:v>
@@ -5463,7 +5463,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G255" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:7" hidden="1">
@@ -5471,7 +5471,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B256" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C256" s="4">
         <x:v>4</x:v>
@@ -5483,7 +5483,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G256" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:7" hidden="1">
@@ -5491,7 +5491,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B257" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C257" s="4">
         <x:v>11</x:v>
@@ -5503,7 +5503,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G257" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:7" hidden="1">
@@ -5511,7 +5511,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B258" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C258" s="4">
         <x:v>11</x:v>
@@ -5523,7 +5523,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G258" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:7" hidden="1">
@@ -5531,10 +5531,10 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B259" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C259" s="4">
         <x:v>4</x:v>
-      </x:c>
-      <x:c r="C259" s="4">
-        <x:v>12</x:v>
       </x:c>
       <x:c r="D259" s="4">
         <x:v>12</x:v>
@@ -5543,7 +5543,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G259" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:7" hidden="1">
@@ -5551,7 +5551,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B260" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C260" s="4">
         <x:v>6</x:v>
@@ -5569,7 +5569,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B261" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C261" s="4">
         <x:v>4</x:v>
@@ -5581,7 +5581,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G261" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:7" hidden="1">
@@ -5589,7 +5589,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B262" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C262" s="4">
         <x:v>9</x:v>
@@ -5601,7 +5601,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G262" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:7" hidden="1">
@@ -5609,7 +5609,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B263" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C263" s="4">
         <x:v>11</x:v>
@@ -5621,7 +5621,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G263" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:7" hidden="1">
@@ -5629,7 +5629,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B264" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C264" s="4">
         <x:v>8</x:v>
@@ -5641,7 +5641,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G264" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:5" hidden="1">
@@ -5649,7 +5649,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B265" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C265" s="4">
         <x:v>10</x:v>
@@ -5666,7 +5666,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B266" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C266" s="4">
         <x:v>8</x:v>
@@ -5683,7 +5683,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B267" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C267" s="4">
         <x:v>6</x:v>
@@ -5692,7 +5692,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="E267" s="4">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:5" hidden="1">
@@ -5700,7 +5700,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B268" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C268" s="4">
         <x:v>10</x:v>
@@ -5717,7 +5717,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B269" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C269" s="4">
         <x:v>3</x:v>
@@ -5734,7 +5734,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B270" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C270" s="4">
         <x:v>6</x:v>
@@ -5748,19 +5748,19 @@
     </x:row>
     <x:row r="271" spans="1:5" hidden="1">
       <x:c r="A271" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B271" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C271" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D271" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E271" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:7" hidden="1">
@@ -5768,7 +5768,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B272" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C272" s="4">
         <x:v>1</x:v>
@@ -5780,7 +5780,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G272" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:7" hidden="1">
@@ -5788,7 +5788,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B273" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C273" s="4">
         <x:v>1</x:v>
@@ -5800,7 +5800,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G273" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:7" hidden="1">
@@ -5808,7 +5808,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B274" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C274" s="4">
         <x:v>1</x:v>
@@ -5820,7 +5820,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G274" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:7" hidden="1">
@@ -5828,7 +5828,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B275" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C275" s="4">
         <x:v>2</x:v>
@@ -5840,7 +5840,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G275" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:7" hidden="1">
@@ -5848,7 +5848,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B276" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C276" s="4">
         <x:v>2</x:v>
@@ -5860,7 +5860,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G276" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:7" hidden="1">
@@ -5868,7 +5868,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B277" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C277" s="4">
         <x:v>3</x:v>
@@ -5880,7 +5880,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G277" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:7" hidden="1">
@@ -5888,7 +5888,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B278" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C278" s="4">
         <x:v>4</x:v>
@@ -5900,7 +5900,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G278" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:7" hidden="1">
@@ -5908,7 +5908,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B279" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C279" s="4">
         <x:v>4</x:v>
@@ -5920,7 +5920,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G279" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:7" hidden="1">
@@ -5928,7 +5928,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B280" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C280" s="4">
         <x:v>8</x:v>
@@ -5940,7 +5940,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G280" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:7" hidden="1">
@@ -5948,7 +5948,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B281" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C281" s="4">
         <x:v>8</x:v>
@@ -5960,7 +5960,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G281" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:7" hidden="1">
@@ -5968,7 +5968,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B282" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C282" s="4">
         <x:v>9</x:v>
@@ -5980,7 +5980,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G282" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:7" hidden="1">
@@ -5988,7 +5988,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B283" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C283" s="4">
         <x:v>9</x:v>
@@ -6000,7 +6000,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G283" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:7" hidden="1">
@@ -6008,7 +6008,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B284" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C284" s="4">
         <x:v>10</x:v>
@@ -6026,7 +6026,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B285" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C285" s="4">
         <x:v>11</x:v>
@@ -6038,15 +6038,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G285" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="286" spans="1:7">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="286" spans="1:7" hidden="1">
       <x:c r="A286" s="4">
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B286" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C286" s="4">
         <x:v>3</x:v>
@@ -6058,7 +6058,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G286" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:7" hidden="1">
@@ -6066,7 +6066,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B287" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C287" s="4">
         <x:v>9</x:v>
@@ -6078,7 +6078,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G287" s="5" t="s">
-        <x:v>22</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:7" hidden="1">
@@ -6086,7 +6086,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B288" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C288" s="4">
         <x:v>6</x:v>
@@ -6098,7 +6098,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G288" s="5" t="s">
-        <x:v>12</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="289" spans="1:5" hidden="1">
@@ -6106,7 +6106,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B289" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C289" s="4">
         <x:v>6</x:v>
@@ -6123,7 +6123,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B290" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C290" s="4">
         <x:v>9</x:v>
@@ -6140,7 +6140,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B291" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C291" s="4">
         <x:v>6</x:v>
@@ -6158,7 +6158,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B293" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C293" s="4">
         <x:v>4</x:v>
@@ -6170,7 +6170,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G293" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="1:7" hidden="1">
@@ -6178,7 +6178,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B294" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C294" s="4">
         <x:v>10</x:v>
@@ -6190,7 +6190,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G294" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="295" spans="1:7" hidden="1">
@@ -6198,7 +6198,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B295" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C295" s="4">
         <x:v>8</x:v>
@@ -6210,7 +6210,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G295" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="296" spans="1:7" hidden="1">
@@ -6218,7 +6218,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B296" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C296" s="4">
         <x:v>9</x:v>
@@ -6230,7 +6230,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G296" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="1:7" hidden="1">
@@ -6238,7 +6238,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B297" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C297" s="4">
         <x:v>10</x:v>
@@ -6250,7 +6250,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G297" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="298" spans="1:7" hidden="1">
@@ -6258,7 +6258,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B298" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C298" s="4">
         <x:v>11</x:v>
@@ -6270,7 +6270,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G298" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:7" hidden="1">
@@ -6278,7 +6278,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B299" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C299" s="4">
         <x:v>11</x:v>
@@ -6290,7 +6290,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G299" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:7" hidden="1">
@@ -6298,7 +6298,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B300" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C300" s="4">
         <x:v>6</x:v>
@@ -6310,7 +6310,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G300" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="301" spans="1:7" hidden="1">
@@ -6318,7 +6318,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B301" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C301" s="4">
         <x:v>6</x:v>
@@ -6330,7 +6330,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G301" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="302" spans="1:7" hidden="1">
@@ -6338,7 +6338,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B302" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C302" s="4">
         <x:v>8</x:v>
@@ -6347,10 +6347,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E302" s="4">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G302" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:7" hidden="1">
@@ -6358,7 +6358,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B303" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C303" s="4">
         <x:v>8</x:v>
@@ -6370,7 +6370,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G303" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:7" hidden="1">
@@ -6378,7 +6378,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B304" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C304" s="4">
         <x:v>8</x:v>
@@ -6390,7 +6390,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G304" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:7" hidden="1">
@@ -6398,7 +6398,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B305" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C305" s="4">
         <x:v>6</x:v>
@@ -6416,7 +6416,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B306" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C306" s="4">
         <x:v>9</x:v>
@@ -6428,7 +6428,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G306" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:7" hidden="1">
@@ -6436,7 +6436,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B307" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C307" s="4">
         <x:v>11</x:v>
@@ -6448,7 +6448,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G307" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="308" spans="1:7" hidden="1">
@@ -6456,7 +6456,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B308" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C308" s="4">
         <x:v>11</x:v>
@@ -6468,7 +6468,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G308" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="309" spans="1:7" hidden="1">
@@ -6476,7 +6476,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B309" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C309" s="4">
         <x:v>10</x:v>
@@ -6488,7 +6488,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G309" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:5" hidden="1">
@@ -6496,7 +6496,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B310" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C310" s="4">
         <x:v>10</x:v>
@@ -6513,7 +6513,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B311" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C311" s="4">
         <x:v>11</x:v>
@@ -6530,7 +6530,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B312" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C312" s="4">
         <x:v>4</x:v>
@@ -6547,7 +6547,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B313" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C313" s="4">
         <x:v>6</x:v>
@@ -6563,19 +6563,19 @@
     <x:row r="315" hidden="1"/>
     <x:row r="316" spans="1:5" hidden="1">
       <x:c r="A316" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="B316" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C316" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D316" s="1" t="s">
-        <x:v>1</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E316" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:7" hidden="1">
@@ -6583,7 +6583,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B317" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C317" s="1">
         <x:v>4</x:v>
@@ -6595,7 +6595,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G317" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:7" hidden="1">
@@ -6603,7 +6603,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B318" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C318" s="1">
         <x:v>5</x:v>
@@ -6615,7 +6615,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G318" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="319" spans="1:7" hidden="1">
@@ -6623,7 +6623,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B319" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C319" s="1">
         <x:v>6</x:v>
@@ -6635,7 +6635,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G319" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="320" spans="1:7" hidden="1">
@@ -6643,7 +6643,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B320" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C320" s="1">
         <x:v>10</x:v>
@@ -6655,7 +6655,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G320" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:7" hidden="1">
@@ -6663,7 +6663,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B321" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C321" s="1">
         <x:v>11</x:v>
@@ -6675,7 +6675,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G321" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="322" spans="1:7" hidden="1">
@@ -6683,7 +6683,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B322" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C322" s="1">
         <x:v>7</x:v>
@@ -6695,7 +6695,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G322" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="323" spans="1:7" hidden="1">
@@ -6703,7 +6703,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B323" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C323" s="1">
         <x:v>8</x:v>
@@ -6712,10 +6712,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E323" s="4">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G323" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:7" hidden="1">
@@ -6723,7 +6723,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B324" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C324" s="1">
         <x:v>9</x:v>
@@ -6735,7 +6735,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G324" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:7" hidden="1">
@@ -6743,7 +6743,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B325" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C325" s="1">
         <x:v>6</x:v>
@@ -6755,7 +6755,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G325" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="326" spans="1:7" hidden="1">
@@ -6763,7 +6763,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B326" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C326" s="1">
         <x:v>11</x:v>
@@ -6775,15 +6775,15 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G326" s="5" t="s">
-        <x:v>25</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="327" spans="1:7">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="327" spans="1:7" hidden="1">
       <x:c r="A327" s="1">
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B327" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C327" s="1">
         <x:v>3</x:v>
@@ -6795,7 +6795,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G327" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="328" spans="1:7" hidden="1">
@@ -6803,7 +6803,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B328" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C328" s="1">
         <x:v>10</x:v>
@@ -6815,7 +6815,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G328" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="329" spans="1:7" hidden="1">
@@ -6823,7 +6823,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B329" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C329" s="1">
         <x:v>10</x:v>
@@ -6841,7 +6841,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B330" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C330" s="1">
         <x:v>10</x:v>
@@ -6853,7 +6853,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G330" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="331" spans="1:7" hidden="1">
@@ -6861,7 +6861,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B331" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C331" s="1">
         <x:v>6</x:v>
@@ -6873,7 +6873,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G331" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="332" spans="1:7" hidden="1">
@@ -6881,7 +6881,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B332" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C332" s="1">
         <x:v>4</x:v>
@@ -6893,7 +6893,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G332" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="333" spans="1:7" hidden="1">
@@ -6901,7 +6901,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B333" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C333" s="1">
         <x:v>6</x:v>
@@ -6913,7 +6913,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G333" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="334" spans="1:5" hidden="1">
@@ -6921,7 +6921,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B334" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C334" s="1">
         <x:v>8</x:v>
@@ -6938,7 +6938,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B335" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C335" s="1">
         <x:v>6</x:v>
@@ -6955,7 +6955,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B336" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C336" s="1">
         <x:v>11</x:v>
@@ -6973,7 +6973,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B338" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C338" s="4">
         <x:v>11</x:v>
@@ -6985,7 +6985,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G338" s="5" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="339" spans="1:7" hidden="1">
@@ -6993,7 +6993,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B339" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C339" s="4">
         <x:v>1</x:v>
@@ -7005,7 +7005,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G339" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="340" spans="1:7" hidden="1">
@@ -7013,7 +7013,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B340" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C340" s="4">
         <x:v>3</x:v>
@@ -7025,7 +7025,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G340" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="341" spans="1:7" hidden="1">
@@ -7033,7 +7033,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B341" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C341" s="4">
         <x:v>1</x:v>
@@ -7045,7 +7045,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G341" s="5" t="s">
-        <x:v>15</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="342" spans="1:7" hidden="1">
@@ -7053,7 +7053,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B342" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C342" s="4">
         <x:v>9</x:v>
@@ -7065,7 +7065,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G342" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="343" spans="1:7" hidden="1">
@@ -7073,10 +7073,10 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B343" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C343" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D343" s="4">
         <x:v>6</x:v>
@@ -7085,7 +7085,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G343" s="5" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="344" spans="1:7" hidden="1">
@@ -7093,7 +7093,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B344" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C344" s="4">
         <x:v>4</x:v>
@@ -7105,7 +7105,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G344" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="345" spans="1:7" hidden="1">
@@ -7113,7 +7113,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B345" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C345" s="4">
         <x:v>6</x:v>
@@ -7125,15 +7125,15 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G345" s="5" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="346" spans="1:7">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="346" spans="1:7" hidden="1">
       <x:c r="A346" s="4">
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B346" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C346" s="4">
         <x:v>3</x:v>
@@ -7145,7 +7145,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G346" s="5" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="347" spans="1:7" hidden="1">
@@ -7153,7 +7153,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B347" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C347" s="4">
         <x:v>10</x:v>
@@ -7165,7 +7165,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G347" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="348" spans="1:7" hidden="1">
@@ -7173,7 +7173,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B348" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C348" s="4">
         <x:v>10</x:v>
@@ -7185,7 +7185,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G348" s="5" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="349" spans="1:7" hidden="1">
@@ -7193,7 +7193,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B349" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C349" s="4">
         <x:v>11</x:v>
@@ -7205,7 +7205,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G349" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="350" spans="1:7" hidden="1">
@@ -7213,7 +7213,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B350" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C350" s="4">
         <x:v>11</x:v>
@@ -7231,7 +7231,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B351" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C351" s="4">
         <x:v>4</x:v>
@@ -7243,7 +7243,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G351" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="352" spans="1:7" hidden="1">
@@ -7251,10 +7251,10 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B352" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C352" s="4">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D352" s="4">
         <x:v>15</x:v>
@@ -7263,7 +7263,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G352" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="353" spans="1:7" hidden="1">
@@ -7271,7 +7271,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B353" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C353" s="4">
         <x:v>4</x:v>
@@ -7283,7 +7283,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G353" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="354" spans="1:7" hidden="1">
@@ -7291,7 +7291,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B354" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C354" s="4">
         <x:v>6</x:v>
@@ -7303,7 +7303,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G354" s="5" t="s">
-        <x:v>11</x:v>
+        <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="355" spans="1:5" hidden="1">
@@ -7311,7 +7311,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B355" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C355" s="4">
         <x:v>6</x:v>
@@ -7328,7 +7328,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B356" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C356" s="4">
         <x:v>11</x:v>
@@ -7345,10 +7345,10 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B357" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C357" s="4">
-        <x:v>6</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D357" s="4">
         <x:v>20</x:v>
@@ -7361,7 +7361,7 @@
   <x:autoFilter ref="A1:G357">
     <x:filterColumn colId="2">
       <x:filters>
-        <x:filter val="3"/>
+        <x:filter val="2"/>
       </x:filters>
     </x:filterColumn>
     <x:filterColumn colId="4">

--- a/BUMMO/01. 자료/01. 족보/02. 수학(하)/02. 기말/수학(하) 기말 문제분류.xlsx
+++ b/BUMMO/01. 자료/01. 족보/02. 수학(하)/02. 기말/수학(하) 기말 문제분류.xlsx
@@ -24,10 +24,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="30">
   <x:si>
-    <x:t>1. 함수의 정의</x:t>
+    <x:t>2 -&gt; 유형서 일반예제</x:t>
   </x:si>
   <x:si>
-    <x:t>2. 여러가지 함수</x:t>
+    <x:t>9. 경우의수(합곱법칙)</x:t>
   </x:si>
   <x:si>
     <x:t>3 -&gt; 유형서 심화예제(킬러, 준킬러)</x:t>
@@ -36,82 +36,82 @@
     <x:t>3 -&gt; 유형서 심화예제(쎈B+, C)</x:t>
   </x:si>
   <x:si>
+    <x:t>난이도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>명제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>단원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고림고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포곡고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>학교</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼계고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태성고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>용인고</x:t>
+  </x:si>
+  <x:si>
     <x:t>1 -&gt; 교과서 기본예제(쎈A스텝)</x:t>
   </x:si>
   <x:si>
     <x:t>2 -&gt; 유형서 일반예제(쎈B스텝)</x:t>
   </x:si>
   <x:si>
-    <x:t>2 -&gt; 유형서 일반예제</x:t>
-  </x:si>
-  <x:si>
     <x:t>1 -&gt; 교과서 기본예제</x:t>
   </x:si>
   <x:si>
-    <x:t>9. 경우의수(합곱법칙)</x:t>
+    <x:t>1. 함수의 정의</x:t>
   </x:si>
   <x:si>
-    <x:t>고림고</x:t>
+    <x:t>2. 여러가지 함수</x:t>
   </x:si>
   <x:si>
-    <x:t>단원</x:t>
+    <x:t>단원구분</x:t>
   </x:si>
   <x:si>
-    <x:t>삼계고</x:t>
+    <x:t>3. 합성함수</x:t>
   </x:si>
   <x:si>
-    <x:t>명제</x:t>
+    <x:t>5. 유리식</x:t>
   </x:si>
   <x:si>
-    <x:t>학교</x:t>
+    <x:t>11. 조합</x:t>
   </x:si>
   <x:si>
-    <x:t>포곡고</x:t>
+    <x:t>절대부등식</x:t>
   </x:si>
   <x:si>
-    <x:t>연도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태성고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>난이도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>용인고</x:t>
+    <x:t>10. 순열</x:t>
   </x:si>
   <x:si>
     <x:t>8. 무리함수</x:t>
   </x:si>
   <x:si>
-    <x:t>절대부등식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5. 유리식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10. 순열</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11. 조합</x:t>
-  </x:si>
-  <x:si>
     <x:t>7. 무리식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>단원구분</x:t>
   </x:si>
   <x:si>
     <x:t>6. 유리함수</x:t>
   </x:si>
   <x:si>
     <x:t>4. 역함수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 합성함수</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -934,7 +934,7 @@
   <x:dimension ref="A1:G357"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <x:selection activeCell="B283" activeCellId="0" sqref="B283:B283"/>
+      <x:selection activeCell="C311" activeCellId="0" sqref="C311:C311"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -949,19 +949,19 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B1" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C1" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D1" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F1" s="6"/>
       <x:c r="G1" s="5"/>
@@ -984,7 +984,7 @@
       </x:c>
       <x:c r="F2" s="6"/>
       <x:c r="G2" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:7" hidden="1">
@@ -1005,7 +1005,7 @@
       </x:c>
       <x:c r="F3" s="6"/>
       <x:c r="G3" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7" hidden="1">
@@ -1026,7 +1026,7 @@
       </x:c>
       <x:c r="F4" s="6"/>
       <x:c r="G4" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7" hidden="1">
@@ -1047,7 +1047,7 @@
       </x:c>
       <x:c r="F5" s="6"/>
       <x:c r="G5" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7" hidden="1">
@@ -1058,7 +1058,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="2">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="2">
         <x:v>5</x:v>
@@ -1068,7 +1068,7 @@
       </x:c>
       <x:c r="F6" s="6"/>
       <x:c r="G6" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7" hidden="1">
@@ -1110,7 +1110,7 @@
       </x:c>
       <x:c r="F8" s="6"/>
       <x:c r="G8" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:7" hidden="1">
@@ -1131,7 +1131,7 @@
       </x:c>
       <x:c r="F9" s="6"/>
       <x:c r="G9" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:7" hidden="1">
@@ -1152,7 +1152,7 @@
       </x:c>
       <x:c r="F10" s="6"/>
       <x:c r="G10" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:7" hidden="1">
@@ -1173,7 +1173,7 @@
       </x:c>
       <x:c r="F11" s="6"/>
       <x:c r="G11" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:7" hidden="1">
@@ -1194,7 +1194,7 @@
       </x:c>
       <x:c r="F12" s="6"/>
       <x:c r="G12" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:7" hidden="1">
@@ -1215,7 +1215,7 @@
       </x:c>
       <x:c r="F13" s="6"/>
       <x:c r="G13" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:7" hidden="1">
@@ -1255,7 +1255,7 @@
       </x:c>
       <x:c r="F15" s="6"/>
       <x:c r="G15" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:7" hidden="1">
@@ -1276,7 +1276,7 @@
       </x:c>
       <x:c r="F16" s="6"/>
       <x:c r="G16" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:7" hidden="1">
@@ -1297,7 +1297,7 @@
       </x:c>
       <x:c r="F17" s="6"/>
       <x:c r="G17" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:7" hidden="1">
@@ -1366,7 +1366,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C22" s="2">
         <x:v>5</x:v>
@@ -1378,7 +1378,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G22" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:7" hidden="1">
@@ -1386,7 +1386,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C23" s="2">
         <x:v>6</x:v>
@@ -1398,7 +1398,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G23" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:7" hidden="1">
@@ -1406,19 +1406,19 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C24" s="2">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D24" s="2">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E24" s="2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G24" s="5" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="C24" s="2">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D24" s="2">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E24" s="2">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G24" s="5" t="s">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:7" hidden="1">
@@ -1426,7 +1426,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C25" s="2">
         <x:v>6</x:v>
@@ -1438,7 +1438,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G25" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:7" hidden="1">
@@ -1446,7 +1446,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C26" s="2">
         <x:v>6</x:v>
@@ -1458,7 +1458,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G26" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:7" hidden="1">
@@ -1466,7 +1466,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C27" s="2">
         <x:v>8</x:v>
@@ -1486,7 +1486,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C28" s="2">
         <x:v>8</x:v>
@@ -1498,7 +1498,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G28" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:7" hidden="1">
@@ -1506,7 +1506,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C29" s="2">
         <x:v>8</x:v>
@@ -1518,7 +1518,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G29" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:7" hidden="1">
@@ -1526,7 +1526,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C30" s="2">
         <x:v>8</x:v>
@@ -1538,7 +1538,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G30" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:7" hidden="1">
@@ -1546,7 +1546,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C31" s="2">
         <x:v>8</x:v>
@@ -1558,7 +1558,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G31" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:7" hidden="1">
@@ -1566,7 +1566,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C32" s="2">
         <x:v>11</x:v>
@@ -1578,7 +1578,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G32" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:7" hidden="1">
@@ -1586,7 +1586,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C33" s="2">
         <x:v>11</x:v>
@@ -1598,7 +1598,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G33" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:7" hidden="1">
@@ -1606,7 +1606,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C34" s="2">
         <x:v>11</x:v>
@@ -1624,7 +1624,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C35" s="2">
         <x:v>10</x:v>
@@ -1636,7 +1636,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G35" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:7" hidden="1">
@@ -1644,19 +1644,19 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C36" s="2">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D36" s="2">
         <x:v>15</x:v>
       </x:c>
       <x:c r="E36" s="2">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="G36" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:7" hidden="1">
@@ -1664,7 +1664,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B37" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C37" s="2">
         <x:v>5</x:v>
@@ -1676,7 +1676,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G37" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:7" hidden="1">
@@ -1684,7 +1684,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B38" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C38" s="2">
         <x:v>7</x:v>
@@ -1704,7 +1704,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C39" s="2">
         <x:v>10</x:v>
@@ -1724,22 +1724,22 @@
     <x:row r="45" hidden="1"/>
     <x:row r="46" spans="1:7" hidden="1">
       <x:c r="A46" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B46" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C46" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D46" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E46" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="G46" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:7" hidden="1">
@@ -1747,7 +1747,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B47" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C47" s="4">
         <x:v>11</x:v>
@@ -1759,7 +1759,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G47" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:7" hidden="1">
@@ -1767,7 +1767,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B48" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C48" s="4">
         <x:v>6</x:v>
@@ -1779,7 +1779,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G48" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:7" hidden="1">
@@ -1787,7 +1787,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B49" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C49" s="4">
         <x:v>4</x:v>
@@ -1799,7 +1799,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G49" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:7" hidden="1">
@@ -1807,7 +1807,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B50" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C50" s="4">
         <x:v>8</x:v>
@@ -1819,7 +1819,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G50" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:7" hidden="1">
@@ -1827,7 +1827,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B51" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C51" s="4">
         <x:v>11</x:v>
@@ -1847,7 +1847,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B52" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C52" s="4">
         <x:v>8</x:v>
@@ -1859,7 +1859,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G52" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:7" hidden="1">
@@ -1867,7 +1867,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B53" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C53" s="4">
         <x:v>4</x:v>
@@ -1879,7 +1879,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G53" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:7" hidden="1">
@@ -1887,7 +1887,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B54" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C54" s="4">
         <x:v>10</x:v>
@@ -1899,7 +1899,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G54" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:7" hidden="1">
@@ -1907,7 +1907,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B55" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C55" s="4">
         <x:v>4</x:v>
@@ -1919,7 +1919,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G55" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:7" hidden="1">
@@ -1927,7 +1927,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B56" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C56" s="4">
         <x:v>8</x:v>
@@ -1939,7 +1939,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G56" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:7" hidden="1">
@@ -1947,7 +1947,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B57" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C57" s="4">
         <x:v>10</x:v>
@@ -1959,7 +1959,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G57" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:7" hidden="1">
@@ -1967,7 +1967,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B58" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C58" s="4">
         <x:v>9</x:v>
@@ -1985,39 +1985,39 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B59" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C59" s="4">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D59" s="4">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E59" s="4">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G59" s="5" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:7">
+      <x:c r="A60" s="4">
+        <x:v>2018</x:v>
+      </x:c>
+      <x:c r="B60" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C60" s="4">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D60" s="4">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E60" s="4">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G60" s="5" t="s">
         <x:v>17</x:v>
-      </x:c>
-      <x:c r="C59" s="4">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D59" s="4">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E59" s="4">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G59" s="5" t="s">
-        <x:v>18</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:7" hidden="1">
-      <x:c r="A60" s="4">
-        <x:v>2018</x:v>
-      </x:c>
-      <x:c r="B60" s="4" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C60" s="4">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D60" s="4">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E60" s="4">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="G60" s="5" t="s">
-        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:7" hidden="1">
@@ -2025,7 +2025,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B61" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C61" s="4">
         <x:v>6</x:v>
@@ -2037,7 +2037,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G61" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:7" hidden="1">
@@ -2045,7 +2045,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B62" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C62" s="4">
         <x:v>11</x:v>
@@ -2065,7 +2065,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B63" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C63" s="4">
         <x:v>8</x:v>
@@ -2082,7 +2082,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B64" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C64" s="4">
         <x:v>6</x:v>
@@ -2100,7 +2100,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B66" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C66" s="4">
         <x:v>11</x:v>
@@ -2112,7 +2112,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G66" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:7" hidden="1">
@@ -2120,7 +2120,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B67" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C67" s="4">
         <x:v>4</x:v>
@@ -2132,7 +2132,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G67" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:7" hidden="1">
@@ -2140,7 +2140,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B68" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C68" s="4">
         <x:v>1</x:v>
@@ -2152,7 +2152,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G68" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:7" hidden="1">
@@ -2160,7 +2160,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B69" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C69" s="4">
         <x:v>8</x:v>
@@ -2172,7 +2172,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G69" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:7" hidden="1">
@@ -2180,7 +2180,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B70" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C70" s="4">
         <x:v>6</x:v>
@@ -2192,7 +2192,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G70" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:7" hidden="1">
@@ -2200,7 +2200,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B71" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C71" s="4">
         <x:v>9</x:v>
@@ -2220,7 +2220,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B72" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C72" s="4">
         <x:v>11</x:v>
@@ -2232,7 +2232,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G72" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:7" hidden="1">
@@ -2240,7 +2240,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B73" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C73" s="4">
         <x:v>1</x:v>
@@ -2252,7 +2252,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G73" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:7" hidden="1">
@@ -2260,7 +2260,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B74" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C74" s="4">
         <x:v>6</x:v>
@@ -2272,7 +2272,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G74" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:7" hidden="1">
@@ -2280,7 +2280,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B75" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C75" s="4">
         <x:v>9</x:v>
@@ -2292,7 +2292,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G75" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:7" hidden="1">
@@ -2300,7 +2300,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B76" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C76" s="4">
         <x:v>8</x:v>
@@ -2312,7 +2312,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G76" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:7" hidden="1">
@@ -2320,7 +2320,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B77" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C77" s="4">
         <x:v>6</x:v>
@@ -2332,7 +2332,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G77" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:7" hidden="1">
@@ -2340,7 +2340,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B78" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C78" s="4">
         <x:v>8</x:v>
@@ -2353,12 +2353,12 @@
       </x:c>
       <x:c r="G78" s="5"/>
     </x:row>
-    <x:row r="79" spans="1:7">
+    <x:row r="79" spans="1:7" hidden="1">
       <x:c r="A79" s="4">
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B79" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C79" s="4">
         <x:v>2</x:v>
@@ -2370,7 +2370,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G79" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:7" hidden="1">
@@ -2378,7 +2378,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B80" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C80" s="4">
         <x:v>10</x:v>
@@ -2390,7 +2390,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G80" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:7" hidden="1">
@@ -2398,7 +2398,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B81" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C81" s="4">
         <x:v>8</x:v>
@@ -2410,7 +2410,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G81" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:7" hidden="1">
@@ -2418,7 +2418,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B82" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C82" s="4">
         <x:v>8</x:v>
@@ -2438,7 +2438,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B83" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C83" s="4">
         <x:v>11</x:v>
@@ -2455,7 +2455,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B84" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C84" s="4">
         <x:v>6</x:v>
@@ -2472,7 +2472,7 @@
         <x:v>2018</x:v>
       </x:c>
       <x:c r="B85" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C85" s="4">
         <x:v>10</x:v>
@@ -2491,19 +2491,19 @@
     <x:row r="90" s="2" customFormat="1" hidden="1"/>
     <x:row r="91" spans="1:5" s="2" customFormat="1" hidden="1">
       <x:c r="A91" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B91" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C91" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D91" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E91" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:7" hidden="1">
@@ -2511,7 +2511,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B92" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C92" s="4">
         <x:v>1</x:v>
@@ -2523,7 +2523,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G92" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:7" hidden="1">
@@ -2531,7 +2531,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B93" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C93" s="4">
         <x:v>2</x:v>
@@ -2543,7 +2543,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G93" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:7" hidden="1">
@@ -2551,7 +2551,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B94" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C94" s="4">
         <x:v>3</x:v>
@@ -2563,7 +2563,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G94" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:7" hidden="1">
@@ -2571,7 +2571,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B95" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C95" s="4">
         <x:v>4</x:v>
@@ -2583,7 +2583,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G95" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:7" hidden="1">
@@ -2591,7 +2591,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B96" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C96" s="4">
         <x:v>4</x:v>
@@ -2603,7 +2603,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G96" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:7" hidden="1">
@@ -2611,7 +2611,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B97" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C97" s="4">
         <x:v>5</x:v>
@@ -2631,7 +2631,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B98" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C98" s="4">
         <x:v>6</x:v>
@@ -2643,7 +2643,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G98" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:7" hidden="1">
@@ -2651,7 +2651,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B99" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C99" s="4">
         <x:v>6</x:v>
@@ -2663,7 +2663,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G99" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:7" hidden="1">
@@ -2671,7 +2671,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B100" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C100" s="4">
         <x:v>6</x:v>
@@ -2683,7 +2683,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G100" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:7" hidden="1">
@@ -2691,7 +2691,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B101" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C101" s="4">
         <x:v>8</x:v>
@@ -2703,7 +2703,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G101" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:7" hidden="1">
@@ -2711,7 +2711,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B102" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C102" s="4">
         <x:v>8</x:v>
@@ -2723,7 +2723,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G102" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:7" hidden="1">
@@ -2731,7 +2731,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B103" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C103" s="4">
         <x:v>9</x:v>
@@ -2743,7 +2743,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G103" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:7" hidden="1">
@@ -2751,7 +2751,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B104" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C104" s="4">
         <x:v>9</x:v>
@@ -2769,10 +2769,10 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B105" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C105" s="4">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D105" s="4">
         <x:v>14</x:v>
@@ -2781,7 +2781,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G105" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:7" hidden="1">
@@ -2789,7 +2789,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B106" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C106" s="4">
         <x:v>11</x:v>
@@ -2801,7 +2801,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G106" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:7" hidden="1">
@@ -2809,7 +2809,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B107" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C107" s="4">
         <x:v>10</x:v>
@@ -2821,7 +2821,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G107" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:7" hidden="1">
@@ -2829,7 +2829,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B108" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C108" s="4">
         <x:v>11</x:v>
@@ -2849,7 +2849,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B109" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C109" s="4">
         <x:v>10</x:v>
@@ -2866,7 +2866,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B110" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C110" s="4">
         <x:v>8</x:v>
@@ -2883,7 +2883,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B111" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C111" s="4">
         <x:v>1</x:v>
@@ -2900,7 +2900,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B112" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C112" s="4">
         <x:v>11</x:v>
@@ -2918,7 +2918,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B114" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C114" s="4">
         <x:v>8</x:v>
@@ -2930,7 +2930,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G114" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:7" hidden="1">
@@ -2938,7 +2938,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B115" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C115" s="4">
         <x:v>4</x:v>
@@ -2950,7 +2950,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G115" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:7" hidden="1">
@@ -2958,19 +2958,19 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B116" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C116" s="4">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D116" s="4">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E116" s="4">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G116" s="5" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="C116" s="4">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D116" s="4">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E116" s="4">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="G116" s="5" t="s">
-        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:7" hidden="1">
@@ -2978,7 +2978,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B117" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C117" s="4">
         <x:v>11</x:v>
@@ -2990,7 +2990,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G117" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:7" hidden="1">
@@ -2998,7 +2998,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B118" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C118" s="4">
         <x:v>6</x:v>
@@ -3010,7 +3010,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G118" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:7" hidden="1">
@@ -3018,7 +3018,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B119" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C119" s="4">
         <x:v>7</x:v>
@@ -3033,12 +3033,12 @@
         <x:v>22</x:v>
       </x:c>
     </x:row>
-    <x:row r="120" spans="1:7">
+    <x:row r="120" spans="1:7" hidden="1">
       <x:c r="A120" s="4">
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B120" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C120" s="4">
         <x:v>2</x:v>
@@ -3050,7 +3050,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G120" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:7" hidden="1">
@@ -3058,7 +3058,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B121" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C121" s="4">
         <x:v>10</x:v>
@@ -3067,10 +3067,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="E121" s="4">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="G121" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:7" hidden="1">
@@ -3078,7 +3078,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B122" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C122" s="4">
         <x:v>11</x:v>
@@ -3090,7 +3090,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G122" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:7" hidden="1">
@@ -3098,7 +3098,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B123" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C123" s="4">
         <x:v>4</x:v>
@@ -3110,7 +3110,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G123" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:7" hidden="1">
@@ -3118,7 +3118,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B124" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C124" s="4">
         <x:v>6</x:v>
@@ -3130,7 +3130,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G124" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:7" hidden="1">
@@ -3138,7 +3138,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B125" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C125" s="4">
         <x:v>10</x:v>
@@ -3150,7 +3150,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G125" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:7" hidden="1">
@@ -3158,7 +3158,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B126" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C126" s="4">
         <x:v>11</x:v>
@@ -3176,7 +3176,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B127" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C127" s="4">
         <x:v>11</x:v>
@@ -3188,7 +3188,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G127" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:7" hidden="1">
@@ -3196,7 +3196,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B128" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C128" s="4">
         <x:v>6</x:v>
@@ -3208,7 +3208,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G128" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:7" hidden="1">
@@ -3216,7 +3216,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B129" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C129" s="4">
         <x:v>8</x:v>
@@ -3228,7 +3228,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G129" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:7" hidden="1">
@@ -3236,7 +3236,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B130" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C130" s="4">
         <x:v>11</x:v>
@@ -3256,7 +3256,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B131" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C131" s="4">
         <x:v>3</x:v>
@@ -3273,7 +3273,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B132" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C132" s="4">
         <x:v>8</x:v>
@@ -3290,7 +3290,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B133" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C133" s="4">
         <x:v>11</x:v>
@@ -3306,19 +3306,19 @@
     <x:row r="135" hidden="1"/>
     <x:row r="136" spans="1:5" hidden="1">
       <x:c r="A136" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B136" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C136" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D136" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E136" s="2" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:7" hidden="1">
@@ -3326,7 +3326,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B137" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C137" s="4">
         <x:v>11</x:v>
@@ -3338,7 +3338,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G137" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:7" hidden="1">
@@ -3346,7 +3346,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B138" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C138" s="4">
         <x:v>4</x:v>
@@ -3358,7 +3358,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G138" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:7" hidden="1">
@@ -3366,7 +3366,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B139" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C139" s="4">
         <x:v>6</x:v>
@@ -3378,7 +3378,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G139" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:7" hidden="1">
@@ -3386,7 +3386,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B140" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C140" s="4">
         <x:v>7</x:v>
@@ -3398,7 +3398,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G140" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:7" hidden="1">
@@ -3406,7 +3406,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B141" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C141" s="4">
         <x:v>11</x:v>
@@ -3418,7 +3418,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G141" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:7" hidden="1">
@@ -3426,7 +3426,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B142" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C142" s="4">
         <x:v>10</x:v>
@@ -3446,7 +3446,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B143" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C143" s="4">
         <x:v>4</x:v>
@@ -3458,7 +3458,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G143" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:7" hidden="1">
@@ -3466,7 +3466,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B144" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C144" s="4">
         <x:v>3</x:v>
@@ -3478,7 +3478,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G144" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:7" hidden="1">
@@ -3486,7 +3486,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B145" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C145" s="4">
         <x:v>11</x:v>
@@ -3498,7 +3498,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G145" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:7" hidden="1">
@@ -3506,7 +3506,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B146" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C146" s="4">
         <x:v>11</x:v>
@@ -3518,7 +3518,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G146" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:7" hidden="1">
@@ -3526,7 +3526,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B147" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C147" s="4">
         <x:v>6</x:v>
@@ -3538,7 +3538,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G147" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:7" hidden="1">
@@ -3546,7 +3546,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B148" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C148" s="4">
         <x:v>8</x:v>
@@ -3558,7 +3558,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G148" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:7" hidden="1">
@@ -3566,7 +3566,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B149" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C149" s="4">
         <x:v>11</x:v>
@@ -3584,7 +3584,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B150" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C150" s="4">
         <x:v>11</x:v>
@@ -3596,7 +3596,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G150" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:7" hidden="1">
@@ -3604,7 +3604,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B151" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C151" s="4">
         <x:v>8</x:v>
@@ -3616,7 +3616,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G151" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:7" hidden="1">
@@ -3624,7 +3624,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B152" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C152" s="4">
         <x:v>8</x:v>
@@ -3636,7 +3636,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G152" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:7" hidden="1">
@@ -3644,7 +3644,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B153" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C153" s="4">
         <x:v>6</x:v>
@@ -3664,7 +3664,7 @@
         <x:v>2019</x:v>
       </x:c>
       <x:c r="B154" s="2" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C154" s="4">
         <x:v>6</x:v>
@@ -3694,7 +3694,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G156" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:7" hidden="1">
@@ -3714,7 +3714,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G157" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:7" hidden="1">
@@ -3734,7 +3734,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G158" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:7" hidden="1">
@@ -3754,7 +3754,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G159" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:7" hidden="1">
@@ -3774,7 +3774,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G160" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:7" hidden="1">
@@ -3814,7 +3814,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G162" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:7" hidden="1">
@@ -3834,7 +3834,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G163" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:7" hidden="1">
@@ -3854,7 +3854,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G164" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:7" hidden="1">
@@ -3874,7 +3874,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G165" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:7" hidden="1">
@@ -3894,10 +3894,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G166" s="5" t="s">
-        <x:v>23</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="167" spans="1:7">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:7" hidden="1">
       <x:c r="A167" s="4">
         <x:v>2020</x:v>
       </x:c>
@@ -3914,7 +3914,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G167" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:7" hidden="1">
@@ -3952,7 +3952,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G169" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:7" hidden="1">
@@ -3972,7 +3972,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G170" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:7" hidden="1">
@@ -3992,7 +3992,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G171" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:7" hidden="1">
@@ -4073,19 +4073,19 @@
     <x:row r="180" hidden="1"/>
     <x:row r="181" spans="1:5" hidden="1">
       <x:c r="A181" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B181" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C181" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D181" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E181" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:7" hidden="1">
@@ -4093,7 +4093,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B182" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C182" s="1">
         <x:v>11</x:v>
@@ -4106,7 +4106,7 @@
       </x:c>
       <x:c r="F182" s="1"/>
       <x:c r="G182" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:7" hidden="1">
@@ -4114,7 +4114,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B183" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C183" s="1">
         <x:v>7</x:v>
@@ -4127,7 +4127,7 @@
       </x:c>
       <x:c r="F183" s="1"/>
       <x:c r="G183" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:7" hidden="1">
@@ -4135,7 +4135,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B184" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C184" s="1">
         <x:v>4</x:v>
@@ -4148,7 +4148,7 @@
       </x:c>
       <x:c r="F184" s="1"/>
       <x:c r="G184" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:7" hidden="1">
@@ -4156,7 +4156,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B185" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C185" s="1">
         <x:v>2</x:v>
@@ -4169,7 +4169,7 @@
       </x:c>
       <x:c r="F185" s="1"/>
       <x:c r="G185" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:7" hidden="1">
@@ -4177,7 +4177,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B186" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C186" s="1">
         <x:v>9</x:v>
@@ -4190,7 +4190,7 @@
       </x:c>
       <x:c r="F186" s="1"/>
       <x:c r="G186" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:7" hidden="1">
@@ -4198,7 +4198,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B187" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C187" s="1">
         <x:v>8</x:v>
@@ -4219,7 +4219,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B188" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C188" s="1">
         <x:v>4</x:v>
@@ -4232,7 +4232,7 @@
       </x:c>
       <x:c r="F188" s="1"/>
       <x:c r="G188" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:7" hidden="1">
@@ -4240,7 +4240,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B189" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C189" s="1">
         <x:v>10</x:v>
@@ -4253,7 +4253,7 @@
       </x:c>
       <x:c r="F189" s="1"/>
       <x:c r="G189" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:7" hidden="1">
@@ -4261,7 +4261,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B190" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C190" s="1">
         <x:v>11</x:v>
@@ -4274,7 +4274,7 @@
       </x:c>
       <x:c r="F190" s="1"/>
       <x:c r="G190" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:7" hidden="1">
@@ -4282,7 +4282,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B191" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C191" s="1">
         <x:v>6</x:v>
@@ -4295,15 +4295,15 @@
       </x:c>
       <x:c r="F191" s="1"/>
       <x:c r="G191" s="5" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="192" spans="1:7">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="192" spans="1:7" hidden="1">
       <x:c r="A192" s="1">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B192" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C192" s="1">
         <x:v>2</x:v>
@@ -4316,7 +4316,7 @@
       </x:c>
       <x:c r="F192" s="1"/>
       <x:c r="G192" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:7" hidden="1">
@@ -4324,7 +4324,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B193" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C193" s="1">
         <x:v>4</x:v>
@@ -4337,7 +4337,7 @@
       </x:c>
       <x:c r="F193" s="1"/>
       <x:c r="G193" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:7" hidden="1">
@@ -4345,7 +4345,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B194" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C194" s="1">
         <x:v>3</x:v>
@@ -4364,10 +4364,10 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B195" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C195" s="1">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D195" s="1">
         <x:v>14</x:v>
@@ -4377,7 +4377,7 @@
       </x:c>
       <x:c r="F195" s="1"/>
       <x:c r="G195" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:7" hidden="1">
@@ -4385,7 +4385,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B196" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C196" s="1">
         <x:v>6</x:v>
@@ -4398,7 +4398,7 @@
       </x:c>
       <x:c r="F196" s="1"/>
       <x:c r="G196" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:7" hidden="1">
@@ -4406,7 +4406,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B197" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C197" s="1">
         <x:v>10</x:v>
@@ -4419,7 +4419,7 @@
       </x:c>
       <x:c r="F197" s="1"/>
       <x:c r="G197" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:7" hidden="1">
@@ -4427,7 +4427,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B198" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C198" s="1">
         <x:v>4</x:v>
@@ -4443,12 +4443,12 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="199" spans="1:7" hidden="1">
+    <x:row r="199" spans="1:7">
       <x:c r="A199" s="1">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B199" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C199" s="1">
         <x:v>11</x:v>
@@ -4467,7 +4467,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B200" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C200" s="1">
         <x:v>6</x:v>
@@ -4481,12 +4481,12 @@
       <x:c r="F200" s="1"/>
       <x:c r="G200" s="1"/>
     </x:row>
-    <x:row r="201" spans="1:7" hidden="1">
+    <x:row r="201" spans="1:7">
       <x:c r="A201" s="1">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B201" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C201" s="1">
         <x:v>11</x:v>
@@ -4505,7 +4505,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B202" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C202" s="1">
         <x:v>10</x:v>
@@ -4524,7 +4524,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B203" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C203" s="1">
         <x:v>4</x:v>
@@ -4544,7 +4544,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B205" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C205" s="4">
         <x:v>9</x:v>
@@ -4556,7 +4556,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G205" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:7" hidden="1">
@@ -4564,7 +4564,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B206" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C206" s="4">
         <x:v>11</x:v>
@@ -4576,7 +4576,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G206" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:7" hidden="1">
@@ -4584,7 +4584,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B207" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C207" s="4">
         <x:v>3</x:v>
@@ -4596,7 +4596,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G207" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:7" hidden="1">
@@ -4604,7 +4604,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B208" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C208" s="4">
         <x:v>10</x:v>
@@ -4616,7 +4616,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G208" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:7" hidden="1">
@@ -4624,7 +4624,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B209" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C209" s="4">
         <x:v>11</x:v>
@@ -4636,7 +4636,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G209" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:7" hidden="1">
@@ -4644,7 +4644,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B210" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C210" s="4">
         <x:v>4</x:v>
@@ -4664,7 +4664,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B211" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C211" s="4">
         <x:v>10</x:v>
@@ -4676,7 +4676,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G211" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:7" hidden="1">
@@ -4684,7 +4684,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B212" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C212" s="4">
         <x:v>10</x:v>
@@ -4696,7 +4696,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G212" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:7" hidden="1">
@@ -4704,7 +4704,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B213" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C213" s="4">
         <x:v>11</x:v>
@@ -4716,7 +4716,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G213" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:7" hidden="1">
@@ -4724,7 +4724,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B214" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C214" s="4">
         <x:v>8</x:v>
@@ -4736,7 +4736,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G214" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:7" hidden="1">
@@ -4744,7 +4744,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B215" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C215" s="4">
         <x:v>10</x:v>
@@ -4756,7 +4756,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G215" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:7" hidden="1">
@@ -4764,7 +4764,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B216" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C216" s="4">
         <x:v>4</x:v>
@@ -4776,7 +4776,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G216" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:7" hidden="1">
@@ -4784,7 +4784,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B217" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C217" s="4">
         <x:v>3</x:v>
@@ -4802,7 +4802,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B218" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C218" s="4">
         <x:v>6</x:v>
@@ -4814,7 +4814,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G218" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:7" hidden="1">
@@ -4822,7 +4822,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B219" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C219" s="4">
         <x:v>6</x:v>
@@ -4834,15 +4834,15 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G219" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="220" spans="1:7" hidden="1">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="220" spans="1:7">
       <x:c r="A220" s="4">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B220" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C220" s="4">
         <x:v>11</x:v>
@@ -4851,10 +4851,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E220" s="4">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="G220" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:7" hidden="1">
@@ -4862,7 +4862,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B221" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C221" s="4">
         <x:v>8</x:v>
@@ -4877,12 +4877,12 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="222" spans="1:5" hidden="1">
+    <x:row r="222" spans="1:5">
       <x:c r="A222" s="4">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B222" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C222" s="4">
         <x:v>11</x:v>
@@ -4899,19 +4899,19 @@
     <x:row r="225" hidden="1"/>
     <x:row r="226" spans="1:7" hidden="1">
       <x:c r="A226" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B226" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C226" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D226" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E226" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="F226" s="1"/>
       <x:c r="G226" s="1"/>
@@ -4921,7 +4921,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B227" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C227" s="4">
         <x:v>1</x:v>
@@ -4933,7 +4933,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G227" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:7" hidden="1">
@@ -4941,7 +4941,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B228" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C228" s="4">
         <x:v>9</x:v>
@@ -4953,7 +4953,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G228" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:7" hidden="1">
@@ -4961,7 +4961,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B229" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C229" s="4">
         <x:v>6</x:v>
@@ -4973,7 +4973,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G229" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:7" hidden="1">
@@ -4981,7 +4981,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B230" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C230" s="4">
         <x:v>11</x:v>
@@ -4993,7 +4993,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G230" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:7" hidden="1">
@@ -5001,7 +5001,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B231" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C231" s="4">
         <x:v>3</x:v>
@@ -5013,7 +5013,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G231" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:7" hidden="1">
@@ -5021,7 +5021,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B232" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C232" s="4">
         <x:v>4</x:v>
@@ -5041,7 +5041,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B233" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C233" s="4">
         <x:v>11</x:v>
@@ -5053,15 +5053,15 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G233" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="234" spans="1:7">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="234" spans="1:7" hidden="1">
       <x:c r="A234" s="4">
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B234" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C234" s="4">
         <x:v>2</x:v>
@@ -5073,7 +5073,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G234" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:7" hidden="1">
@@ -5081,10 +5081,10 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B235" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C235" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D235" s="4">
         <x:v>9</x:v>
@@ -5093,7 +5093,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G235" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:7" hidden="1">
@@ -5101,7 +5101,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B236" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C236" s="4">
         <x:v>4</x:v>
@@ -5113,7 +5113,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G236" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:7" hidden="1">
@@ -5121,7 +5121,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B237" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C237" s="4">
         <x:v>8</x:v>
@@ -5133,7 +5133,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G237" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:7" hidden="1">
@@ -5141,7 +5141,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B238" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C238" s="4">
         <x:v>11</x:v>
@@ -5153,7 +5153,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G238" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:7" hidden="1">
@@ -5161,7 +5161,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B239" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C239" s="4">
         <x:v>4</x:v>
@@ -5179,7 +5179,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B240" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C240" s="4">
         <x:v>8</x:v>
@@ -5191,7 +5191,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G240" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:7" hidden="1">
@@ -5199,7 +5199,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B241" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C241" s="4">
         <x:v>10</x:v>
@@ -5211,7 +5211,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G241" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:7" hidden="1">
@@ -5219,7 +5219,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B242" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C242" s="4">
         <x:v>4</x:v>
@@ -5231,7 +5231,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G242" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:7" hidden="1">
@@ -5239,7 +5239,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B243" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C243" s="4">
         <x:v>8</x:v>
@@ -5259,7 +5259,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B244" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C244" s="4">
         <x:v>10</x:v>
@@ -5276,10 +5276,10 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B245" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C245" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D245" s="4">
         <x:v>19</x:v>
@@ -5293,7 +5293,7 @@
         <x:v>2020</x:v>
       </x:c>
       <x:c r="B246" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C246" s="4">
         <x:v>8</x:v>
@@ -5323,7 +5323,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G248" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:7" hidden="1">
@@ -5343,7 +5343,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G249" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:7" hidden="1">
@@ -5363,7 +5363,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G250" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:7" hidden="1">
@@ -5383,7 +5383,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G251" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:7" hidden="1">
@@ -5403,7 +5403,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G252" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:7" hidden="1">
@@ -5443,7 +5443,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G254" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:7" hidden="1">
@@ -5463,7 +5463,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G255" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:7" hidden="1">
@@ -5483,7 +5483,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G256" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:7" hidden="1">
@@ -5503,7 +5503,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G257" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:7" hidden="1">
@@ -5523,7 +5523,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G258" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:7" hidden="1">
@@ -5543,7 +5543,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G259" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:7" hidden="1">
@@ -5581,7 +5581,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G261" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:7" hidden="1">
@@ -5601,7 +5601,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G262" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:7" hidden="1">
@@ -5621,7 +5621,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G263" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:7" hidden="1">
@@ -5748,19 +5748,19 @@
     </x:row>
     <x:row r="271" spans="1:5" hidden="1">
       <x:c r="A271" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B271" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C271" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D271" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E271" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:7" hidden="1">
@@ -5768,7 +5768,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B272" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C272" s="4">
         <x:v>1</x:v>
@@ -5780,7 +5780,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G272" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:7" hidden="1">
@@ -5788,7 +5788,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B273" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C273" s="4">
         <x:v>1</x:v>
@@ -5800,7 +5800,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G273" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:7" hidden="1">
@@ -5808,7 +5808,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B274" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C274" s="4">
         <x:v>1</x:v>
@@ -5820,7 +5820,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G274" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:7" hidden="1">
@@ -5828,7 +5828,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B275" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C275" s="4">
         <x:v>2</x:v>
@@ -5840,7 +5840,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G275" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:7" hidden="1">
@@ -5848,7 +5848,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B276" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C276" s="4">
         <x:v>2</x:v>
@@ -5860,7 +5860,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G276" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:7" hidden="1">
@@ -5868,7 +5868,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B277" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C277" s="4">
         <x:v>3</x:v>
@@ -5888,7 +5888,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B278" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C278" s="4">
         <x:v>4</x:v>
@@ -5900,7 +5900,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G278" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:7" hidden="1">
@@ -5908,7 +5908,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B279" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C279" s="4">
         <x:v>4</x:v>
@@ -5920,7 +5920,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G279" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:7" hidden="1">
@@ -5928,7 +5928,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B280" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C280" s="4">
         <x:v>8</x:v>
@@ -5940,7 +5940,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G280" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:7" hidden="1">
@@ -5948,7 +5948,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B281" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C281" s="4">
         <x:v>8</x:v>
@@ -5960,7 +5960,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G281" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:7" hidden="1">
@@ -5968,7 +5968,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B282" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C282" s="4">
         <x:v>9</x:v>
@@ -5980,7 +5980,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G282" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:7" hidden="1">
@@ -5988,7 +5988,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B283" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C283" s="4">
         <x:v>9</x:v>
@@ -6000,7 +6000,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G283" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:7" hidden="1">
@@ -6008,7 +6008,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B284" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C284" s="4">
         <x:v>10</x:v>
@@ -6026,7 +6026,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B285" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C285" s="4">
         <x:v>11</x:v>
@@ -6038,7 +6038,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G285" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:7" hidden="1">
@@ -6046,7 +6046,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B286" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C286" s="4">
         <x:v>3</x:v>
@@ -6058,7 +6058,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G286" s="5" t="s">
-        <x:v>4</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:7" hidden="1">
@@ -6066,7 +6066,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B287" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C287" s="4">
         <x:v>9</x:v>
@@ -6078,7 +6078,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G287" s="5" t="s">
-        <x:v>5</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:7" hidden="1">
@@ -6086,7 +6086,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B288" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C288" s="4">
         <x:v>6</x:v>
@@ -6106,7 +6106,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B289" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C289" s="4">
         <x:v>6</x:v>
@@ -6123,7 +6123,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B290" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C290" s="4">
         <x:v>9</x:v>
@@ -6140,7 +6140,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B291" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C291" s="4">
         <x:v>6</x:v>
@@ -6158,7 +6158,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B293" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C293" s="4">
         <x:v>4</x:v>
@@ -6170,7 +6170,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G293" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="1:7" hidden="1">
@@ -6178,7 +6178,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B294" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C294" s="4">
         <x:v>10</x:v>
@@ -6190,7 +6190,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G294" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="295" spans="1:7" hidden="1">
@@ -6198,7 +6198,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B295" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C295" s="4">
         <x:v>8</x:v>
@@ -6210,7 +6210,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G295" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="296" spans="1:7" hidden="1">
@@ -6218,7 +6218,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B296" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C296" s="4">
         <x:v>9</x:v>
@@ -6230,7 +6230,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G296" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="1:7" hidden="1">
@@ -6238,7 +6238,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B297" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C297" s="4">
         <x:v>10</x:v>
@@ -6250,7 +6250,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G297" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="298" spans="1:7" hidden="1">
@@ -6258,7 +6258,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B298" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C298" s="4">
         <x:v>11</x:v>
@@ -6278,7 +6278,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B299" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C299" s="4">
         <x:v>11</x:v>
@@ -6290,7 +6290,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G299" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:7" hidden="1">
@@ -6298,7 +6298,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B300" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C300" s="4">
         <x:v>6</x:v>
@@ -6310,7 +6310,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G300" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="301" spans="1:7" hidden="1">
@@ -6318,7 +6318,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B301" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C301" s="4">
         <x:v>6</x:v>
@@ -6330,7 +6330,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G301" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="302" spans="1:7" hidden="1">
@@ -6338,7 +6338,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B302" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C302" s="4">
         <x:v>8</x:v>
@@ -6350,7 +6350,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G302" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:7" hidden="1">
@@ -6358,7 +6358,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B303" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C303" s="4">
         <x:v>8</x:v>
@@ -6370,7 +6370,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G303" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:7" hidden="1">
@@ -6378,7 +6378,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B304" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C304" s="4">
         <x:v>8</x:v>
@@ -6390,7 +6390,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G304" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:7" hidden="1">
@@ -6398,7 +6398,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B305" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C305" s="4">
         <x:v>6</x:v>
@@ -6416,7 +6416,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B306" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C306" s="4">
         <x:v>9</x:v>
@@ -6428,7 +6428,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G306" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:7" hidden="1">
@@ -6436,7 +6436,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B307" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C307" s="4">
         <x:v>11</x:v>
@@ -6448,7 +6448,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G307" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="308" spans="1:7" hidden="1">
@@ -6456,7 +6456,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B308" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C308" s="4">
         <x:v>11</x:v>
@@ -6468,7 +6468,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G308" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="309" spans="1:7" hidden="1">
@@ -6476,7 +6476,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B309" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C309" s="4">
         <x:v>10</x:v>
@@ -6496,7 +6496,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B310" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C310" s="4">
         <x:v>10</x:v>
@@ -6513,7 +6513,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B311" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C311" s="4">
         <x:v>11</x:v>
@@ -6530,7 +6530,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B312" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C312" s="4">
         <x:v>4</x:v>
@@ -6547,7 +6547,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B313" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C313" s="4">
         <x:v>6</x:v>
@@ -6563,19 +6563,19 @@
     <x:row r="315" hidden="1"/>
     <x:row r="316" spans="1:5" hidden="1">
       <x:c r="A316" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B316" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C316" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D316" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E316" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:7" hidden="1">
@@ -6583,7 +6583,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B317" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C317" s="1">
         <x:v>4</x:v>
@@ -6595,7 +6595,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G317" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:7" hidden="1">
@@ -6603,7 +6603,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B318" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C318" s="1">
         <x:v>5</x:v>
@@ -6615,7 +6615,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G318" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="319" spans="1:7" hidden="1">
@@ -6623,7 +6623,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B319" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C319" s="1">
         <x:v>6</x:v>
@@ -6635,7 +6635,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G319" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="320" spans="1:7" hidden="1">
@@ -6643,7 +6643,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B320" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C320" s="1">
         <x:v>10</x:v>
@@ -6655,7 +6655,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G320" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:7" hidden="1">
@@ -6663,7 +6663,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B321" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C321" s="1">
         <x:v>11</x:v>
@@ -6675,7 +6675,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G321" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="322" spans="1:7" hidden="1">
@@ -6683,7 +6683,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B322" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C322" s="1">
         <x:v>7</x:v>
@@ -6703,7 +6703,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B323" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C323" s="1">
         <x:v>8</x:v>
@@ -6715,7 +6715,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G323" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:7" hidden="1">
@@ -6723,7 +6723,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B324" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C324" s="1">
         <x:v>9</x:v>
@@ -6735,7 +6735,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G324" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:7" hidden="1">
@@ -6743,7 +6743,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B325" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C325" s="1">
         <x:v>6</x:v>
@@ -6755,7 +6755,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G325" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="326" spans="1:7" hidden="1">
@@ -6763,7 +6763,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B326" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C326" s="1">
         <x:v>11</x:v>
@@ -6775,7 +6775,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G326" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="327" spans="1:7" hidden="1">
@@ -6783,7 +6783,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B327" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C327" s="1">
         <x:v>3</x:v>
@@ -6795,7 +6795,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G327" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="328" spans="1:7" hidden="1">
@@ -6803,7 +6803,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B328" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C328" s="1">
         <x:v>10</x:v>
@@ -6815,7 +6815,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G328" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="329" spans="1:7" hidden="1">
@@ -6823,7 +6823,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B329" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C329" s="1">
         <x:v>10</x:v>
@@ -6841,7 +6841,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B330" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C330" s="1">
         <x:v>10</x:v>
@@ -6853,7 +6853,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G330" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="331" spans="1:7" hidden="1">
@@ -6861,7 +6861,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B331" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C331" s="1">
         <x:v>6</x:v>
@@ -6873,7 +6873,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G331" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="332" spans="1:7" hidden="1">
@@ -6881,7 +6881,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B332" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C332" s="1">
         <x:v>4</x:v>
@@ -6893,7 +6893,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G332" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="333" spans="1:7" hidden="1">
@@ -6901,7 +6901,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B333" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C333" s="1">
         <x:v>6</x:v>
@@ -6921,7 +6921,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B334" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C334" s="1">
         <x:v>8</x:v>
@@ -6938,7 +6938,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B335" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C335" s="1">
         <x:v>6</x:v>
@@ -6950,12 +6950,12 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="336" spans="1:5" hidden="1">
+    <x:row r="336" spans="1:5">
       <x:c r="A336" s="1">
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B336" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C336" s="1">
         <x:v>11</x:v>
@@ -6973,7 +6973,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B338" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C338" s="4">
         <x:v>11</x:v>
@@ -6985,7 +6985,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G338" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="339" spans="1:7" hidden="1">
@@ -6993,7 +6993,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B339" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C339" s="4">
         <x:v>1</x:v>
@@ -7005,7 +7005,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G339" s="5" t="s">
-        <x:v>0</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="340" spans="1:7" hidden="1">
@@ -7013,7 +7013,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B340" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C340" s="4">
         <x:v>3</x:v>
@@ -7025,7 +7025,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G340" s="5" t="s">
-        <x:v>1</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="341" spans="1:7" hidden="1">
@@ -7033,7 +7033,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B341" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C341" s="4">
         <x:v>1</x:v>
@@ -7045,7 +7045,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G341" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="342" spans="1:7" hidden="1">
@@ -7053,7 +7053,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B342" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C342" s="4">
         <x:v>9</x:v>
@@ -7065,7 +7065,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G342" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="343" spans="1:7" hidden="1">
@@ -7073,10 +7073,10 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B343" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C343" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D343" s="4">
         <x:v>6</x:v>
@@ -7093,7 +7093,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B344" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C344" s="4">
         <x:v>4</x:v>
@@ -7105,7 +7105,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G344" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="345" spans="1:7" hidden="1">
@@ -7113,7 +7113,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B345" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C345" s="4">
         <x:v>6</x:v>
@@ -7125,7 +7125,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="G345" s="5" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="346" spans="1:7" hidden="1">
@@ -7133,7 +7133,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B346" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C346" s="4">
         <x:v>3</x:v>
@@ -7145,7 +7145,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G346" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="347" spans="1:7" hidden="1">
@@ -7153,7 +7153,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B347" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C347" s="4">
         <x:v>10</x:v>
@@ -7165,7 +7165,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G347" s="5" t="s">
-        <x:v>8</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="348" spans="1:7" hidden="1">
@@ -7173,7 +7173,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B348" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C348" s="4">
         <x:v>10</x:v>
@@ -7185,7 +7185,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G348" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="349" spans="1:7" hidden="1">
@@ -7193,7 +7193,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B349" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C349" s="4">
         <x:v>11</x:v>
@@ -7205,7 +7205,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G349" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="350" spans="1:7" hidden="1">
@@ -7213,7 +7213,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B350" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C350" s="4">
         <x:v>11</x:v>
@@ -7231,7 +7231,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B351" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C351" s="4">
         <x:v>4</x:v>
@@ -7243,7 +7243,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G351" s="5" t="s">
-        <x:v>18</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="352" spans="1:7" hidden="1">
@@ -7251,7 +7251,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B352" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C352" s="4">
         <x:v>11</x:v>
@@ -7263,7 +7263,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G352" s="5" t="s">
-        <x:v>7</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="353" spans="1:7" hidden="1">
@@ -7271,7 +7271,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B353" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C353" s="4">
         <x:v>4</x:v>
@@ -7283,7 +7283,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="G353" s="5" t="s">
-        <x:v>6</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="354" spans="1:7" hidden="1">
@@ -7291,7 +7291,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B354" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C354" s="4">
         <x:v>6</x:v>
@@ -7311,7 +7311,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B355" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C355" s="4">
         <x:v>6</x:v>
@@ -7328,7 +7328,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B356" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C356" s="4">
         <x:v>11</x:v>
@@ -7345,7 +7345,7 @@
         <x:v>2021</x:v>
       </x:c>
       <x:c r="B357" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C357" s="4">
         <x:v>8</x:v>
@@ -7361,12 +7361,12 @@
   <x:autoFilter ref="A1:G357">
     <x:filterColumn colId="2">
       <x:filters>
-        <x:filter val="2"/>
+        <x:filter val="11"/>
       </x:filters>
     </x:filterColumn>
     <x:filterColumn colId="4">
       <x:filters>
-        <x:filter val="2"/>
+        <x:filter val="3"/>
       </x:filters>
     </x:filterColumn>
   </x:autoFilter>
